--- a/500all/speech_level/speeches_CHRG-114hhrg96855.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg96855.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
   <si>
     <t>committee_name</t>
   </si>
@@ -50,9 +50,6 @@
   </si>
   <si>
     <t>400071</t>
-  </si>
-  <si>
-    <t>Steve Chabot</t>
   </si>
 </sst>
 </file>
@@ -451,9 +448,7 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
+      <c r="G2" t="s"/>
       <c r="H2" t="s"/>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg96855.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg96855.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -50,6 +53,12 @@
   </si>
   <si>
     <t>400071</t>
+  </si>
+  <si>
+    <t>Chabot</t>
+  </si>
+  <si>
+    <t>Steve</t>
   </si>
 </sst>
 </file>
@@ -398,7 +407,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -406,7 +415,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -428,28 +437,36 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/500all/speech_level/speeches_CHRG-114hhrg96855.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg96855.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="144">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -52,13 +55,397 @@
     <t>ALL OVERTIME RULE FOR SMALL BUSINESSES AND THEIR EMPLOYEES"</t>
   </si>
   <si>
-    <t>400071</t>
-  </si>
-  <si>
-    <t>Chabot</t>
-  </si>
-  <si>
-    <t>Steve</t>
+    <t>412645</t>
+  </si>
+  <si>
+    <t>Member</t>
+  </si>
+  <si>
+    <t>Hardy</t>
+  </si>
+  <si>
+    <t>Cresent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman HARDY. Good morning. I would like to call this hearing to order. Sorry for being late.    I would like to thank our witnesses for being here today, and especially those small businesses who have traveled so far to get her and testify. We really appreciate that.    So I will start off with a statement here. Fair Labor Standards Act is a primary federal law governing the employee wages, hours worked, and overtime pay. When the Fair Labor Standards Act was enacted--it was in 1938--an exemption from the Act's overtime provision was provided for certain executive, administrative, and professional employees. This is commonly referred to as a ``white collar exemption.'' In March of last year, President Obama directed the Department of Labor to streamline and simplify the regulation governing the white collar exemption. The DOL issued those regulations on July 6th of this year. Judging by the reaction from small business owners across the country, this proposed regulation does not streamline or simplify. Instead, it increases the cost for small businesses and reduces flexibility for American workers.    As we have seen too often, the DOL has done a poor job of analyzing the impact of the rule on small businesses as required by the Regulatory Flexibility Act, and it has vastly underestimated the number of affected small businesses and what the real ramifications are for those companies and their employees. The Administration's own Chief Counsel of Advocacy stated that the analysis relies on numerous assumptions and lacks detailed industry information, even though it was available. In addition, the small business owners have pointed out several other problems. For example, the proposed rule would raise the salary level under which the employees qualify for overtime pay, from $23,660 per year to $50,440 per year in 2016. That is a 102 percent increase that will have a heck of a lot of impact on small business owners' bottom line.    Another problem that I have heard from my constituents back home in Nevada is that the rule adopts the ``one-size-fits-all'' standard. It simply does not recognize the geographic diversity of the American economy and will particularly hurt the rural small businesses that are recovering from this Great Recession. Simply put, $50,440 per year salary threshold might be fine for an employer in San Francisco or midtown Manhattan, but not so much in Ely, Nevada. The impact on the regulation and that of the countless other regulations we have examined here in the Small Business Committee shows that this Administration is tone deaf when it comes to actually helping small businesses. If the DOL finalizes this rule as written, it will make it harder for small business to grow and create jobs.    I look forward to hearing from our small business witnesses who will tell us how this regulation will affect their businesses, their employees, and now I yield to Ranking Member Adams for her opening statement.</t>
+  </si>
+  <si>
+    <t>412607</t>
+  </si>
+  <si>
+    <t>Adams</t>
+  </si>
+  <si>
+    <t>Alma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Ms. ADAMS. Thank you, Mr. Chairman.    The Fair Labor Standards Act is a result of the Great Depression, to ensure the protections of American workers. Included in that act were rules requiring overtime payment for hours worked in excess of the standard 40 hours per week. Overtime provisions are important for covered workers, including 75 million hourly wage workers. These workers value having a 40-hour work week and earning extra pay when they work overtime, yet more and more Americans are working longer hours while wages are flat. Preserving the right to overtime pay is particularly crucial at a time when lower and middle income family wages are stagnant. However, the regulations governing eligibility for overtime are severely outdated. For example, in 1975, more than 65 percent of salaried American workers earned time-and-a-half pay for every hour worked over 40 a week. But by 2013, just 11 percent of those workers qualified for overtime pay. The Department of Labor's proposed regulations would extend overtime protections to nearly five million white-collar worker within the first year of its implementation. Such a change not only puts more money in workers' pockets, it also strengthens our economy by driving consumer spending.    Despite these positive outcomes, there remains some concern as to how these proposed regulations would impact our nation's small businesses. Increasing the salary threshold and the numbers of workers eligible for overtime pay will add significant compliance costs and paperwork burdens on small entities. This fact is particularly true for small employers located in low-wage regions and in industries that operate with low profit margins. More concerning is that small businesses have commented that the high cost of this rule could lead to hourly cutbacks to employees or even salary adjustments. Such actions run counter to the goals of this rule and could ultimately harm employees. And while these potential consequences are concerning, I am confident that today's hearing will be helpful in determining how to properly implement this rule that is beneficial to all sides.    I want to thank all the witnesses for being here today and I look forward to your comments.    Thank you, Mr. Chair. I yield back.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman HARDY. I would like to start with if there are any Committee members that have an opening statement, I would like to make sure they submit it for the record. I would like to also discuss the five minute rule. You will each have five minutes to discuss your testimonies. Then the light will start out green. When it gets down to one minute it will turn yellow. When it hits red, I would appreciate you wrapping up as soon as possible, and I would like you to adhere to that limit.    I would like to start with introductions if I could. Our first witness is Kevin Settles, owner of Bardenay Restaurant with locations throughout Idaho. He was named Idaho Restauranteur in the year 2011, and his business has earned nationwide recognition in Forbes and Wall Street Journal and the television show Modern Marvels. He also serves as a commissioner on the Idaho Human Rights Commission as a member of the National Restaurant Association's Board of Directors for whom he is testifying on behalf of here today. Thank you for being here, Mr. Settles. We appreciate you coming here.    Next up is Mr. Brady, president and CEO of Brady Homes in Bloomington, Illinois, testifying on behalf of the National Association of Home Builders today. He serves as first vice chair of the board. Ed is a second generation home builder, taking over his family business started by his father in 1962. Over that time, the company has built over 1,800 homes and has developed more than 2,000 single-family lots. He was also named the Builder of the Year in his local association in 1996 and in 2001. We appreciate your participation here today, and thank you for being here.    Our next witness is Terry Shea, co-founder of Wrapsody, Inc., a unique gift shop which offers a variety of home and personal products. Wrapsody started with a 2,700 square foot storefront in Hoover, Alabama, that has now expanded and moved into a 5,100 square foot space with the second floor opening soon. She brings over 30 years of experience to the retail and sales contributing to the success of notable companies like Nike and Proctor and Gamble. She is testifying on behalf of the National Retail Federation. Ms. Shea, thank you for being here.    I now would like to turn the time over to the Ranking Member Adams for her to recognize her member.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Ms. ADAMS. Thank you, Mr. Chair.    It is my pleasure to introduce Mr. Ross Eisenbrey, vice president of the Economic Policy Institute. Prior to joining EPI, he worked as the former commissioner of the U.S. Occupational Safety and Health Review Commission and as the policy director of the Occupational Safety and Health Administration. Welcome, Mr. Eisenbrey.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman HARDY. I would like to start with Mr. Settles. If you would not mind.</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>SETTLES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. SETTLES. Good morning, Chairman Hardy, Ranking Member Adams, and distinguished members of the Subcommittee. I would like to thank you for the opportunity today to testify on the impacts to small business of the Department of Labor's proposed regulations on overtime. As said, my name is Kevin Settles. I own and operate the Bardenay Restaurants and Distilleries headquartered in Boise, Idaho. I am honored to share the perspective not only of my company but that of the National Restaurant Association as well. I am proud to say that I serve on their board of directors.    My testimony will focus on four areas. One, the time period allowed to evaluate and comment on the proposals. Two, the minimum salary level. Three, the Department's desire to automate and annualized increases to the minimum salary level. And fourth, the potential adjustments to the current duties test.    On issue number one, the time period allowed for comment was inadequate. It would have been helpful to have been allowed more time to review and comment on the proposed rules. The Department of Labor was asked by our association and many others, including the U.S. Small Business Administration, for an extension. In declining, they cited that the listening sessions held prior to the release of the proposed rules made this unnecessary. I, along with other board members and staff from the NRA, participated in one of the listening sessions. While we appreciated the conversation, it was a conversation focused on general ideas. There was too much vague issues in there for us to feel like we truly were allowed to participate and provide input.    Two, the Department's proposed minimum salary level is inappropriate for our industry. The proposed rate of $50,400 per year is a very large step from where we are today, but that is not our only problem with the proposal. We also have problems with the way the comparative salary survey was done. Traditionally, it was based on low income areas in the U.S., and it has now moved to a national average. In addition to moving to a national average, they moved from the 20th percentile of that average to the 40th percentile. This represents an increase of nearly $10,000 higher than what they currently use in California, or $15,000 higher than in New York. If that is high for them, think about areas like mine in the U.S. It means that we will not be able to take advantage of the exempt salary status. This status was originally created to allow for above average fringe benefits, greater job security, and better opportunities for advancement. The ability for me to delineate programs and perks by salaried versus nonsalaried status has been a great tool and a great benefit for my employees. Setting a minimum rate that is inappropriate for entry level managers in rural areas in our country will end up reducing the benefits available to them.    On the third issue, automatic salary level increases, we think it will only perpetuate bad policy. The Department wants to switch from reviews to resetting the rate internally. We would only learn about the new rates when it is published in the Federal Register. No notice, no comment, no compliance with the Regulatory Flexibility Act. The Department is charged with regular review and updating of the minimum salary. They acknowledge that they have not done this for too long, and we agree, but they cite overall agency workload. Really? They are willing to put a key task for the Department on autopilot at the expense of America's employers and employees because they are too busy? This change would increase the likelihood that more employees would fail to qualify every year. One analysis that the National Restaurant Association has reviewed indicates that if just one quarter of the salaried workforce moved to hourly, in five years, the 40th percentile salary level would be in excess of $72,000 per year. If half were to move, by 2020, the rate would be nearly $96,000.    The fourth issue is adjustments to the duties test are not necessary and should be avoided. In 2004, the Department optimized the duties test to reflect the realities of the modern economy. The Department now says that this may have been a mistake. Our industry disagrees. Our managers need to have a hands-on approach to ensure that our operations run smoothly. Particularly alarming in this issue is the references in the documents to California's over 50 percent qualitative requirements. This reference increase our concerns that the Department may decide to enact changes without any comment period.    In closing, I would like to state that we are not against increasing the salary threshold for exempt status but it has to be at a reasonable level. In addition, any future increases need to be subject to the regulatory process. When it comes to the duties test, we cannot emphasize enough that the restaurant industry does not want to see any changes. And finally, from the process standpoint, we believe the Department should have granted at least as much time for review and comment as it did in 2004.    With that, I would like to thank you for this opportunity to testify today, and I look forward to any questions.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman HARDY. Thank you, Mr. Settles.    Now, I want to recognize Mr. Brady.</t>
+  </si>
+  <si>
+    <t>BRADY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. BRADY. Thank you, Mr. Chairman, Ranking Member Adams. Thanks for the opportunity to testify today.    My name is Ed Brady. I am a home builder and developer from Bloomington, Illinois. I also am the 2015 first vice chairman for the National Association of Home Builders. I have served as president of Brady Homes for the last 15 years. It is a family-owned business my father started in 1962. We primarily build single-family homes, but we have also constructed several light commercial projects. In addition to the home building company, I own two RE/MAX franchises and a property management company.    I am greatly concerned that the proposed overtime regulation could have negative repercussions for my own business and the broader home building industry. This ``one-size-fits-all'' approach to the overtime rules will have a substantial financial impact on housing. The proposal to raise the standard salary level from $455 per week to $970 per week represents an unprecedented increase of over 102 percent. NAHB analysis shows about 116,000 construction supervisors would be affected by this proposal. The rule could also affect other occupations in the industry, including sales reps, administrative staff, and local trade association employees.    NAHB and its members are concerned about the impact of the rule for several reasons. One is that the proposal fails to account for regional differences in pay. Construction wages can vary considerably from one area to the other even in my own state from town to town. What a construction supervisor earns in Tennessee is different from what one earns in California, sometimes significantly. Moreover, such a dramatic surge in the salary threshold is unlikely to result in an increase in workers' take-home pay. Instead, it would force business owners to scale back on pay and benefits, or to cut hours to avoid the overtime requirements. These are not acceptable outcomes.    Employees who are currently salaried are likely to become hourly workers and view their nonexempt status as a demotion. They may even earn less money than before. These employees will also lose the workplace flexibility that comes with being a salaried employee, especially in my industry.    I am also concerned about what the proposal means to my own business. I currently employ one construction supervisor who would become nonexempt under the new salary threshold. My supervisor currently receives a competitive salary with benefits, but the rule does not consider the workers' total compensation package. If the rule forces small businesses to choose between increasing a salary above the threshold or paying for health insurance, I do not think the employee is going to be better off. In fact, when all factors are considered, the employee may be worse off, if not unemployed.    Flexibility is a key component to any job, but specifically in our industry. By their very nature, supervisors are schedulers. Workers representing an average of 22 specialty trades are needed to complete a home, and it is a supervisor's job to ensure the trades complete their work efficiently and to the proper specs. Because homes are constructed outdoors, the supervisor needs flexibility to account for bad weather, especially in the Illinois winters. He might not work for a few days due to a storm, but then work six days the following week. Scheduling changes occur frequently and it is important that construction supervisors have that flexibility to ensure projects stay on time and on track. It is also common for a construction supervisor to respond to phone calls after hours, emails, and even evenings and weekends.    It is very important for my business to accurately predict cost so I know how to price a home. If the proposal becomes law, I will have to seriously consider replacing my supervisor--my employed supervisor with an outside contractor because it will allow me to accurately project my costs. Because of its overly broad approach, I think it is also likely that if the proposal is implemented we will encounter additional problems we have not anticipated.    The bottom line is that more than doubling the overtime threshold will do more harm than good in the home building industry. NAHB strongly opposes this overtime proposal. I would like to thank you for your time and look forward to any questions.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman HARDY. Thank you, Mr. Brady.    Ms. Shea?</t>
+  </si>
+  <si>
+    <t>SHEA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Ms. SHEA. Chairman Hardy, Ranking Member Adams, and members of the Subcommittee, thank you for inviting me to testify before you today on the Department of Labor's proposed overtime rule. My name is Terry Shea, and I am the proud co-owner of Wrapsody, Incorporated, a gift boutique. I am pleased to be testifying on behalf of the National Retail Federation.    Wrapsody is a hometown gift and home accessory boutique with storefront locations in Hoover and Auburn, Alabama. We also have a web store, Wrapsodyonline.com. In August of 2004, my business partner, Sarah Brown and I opened Wrapsody in Hoover, Alabama, with three part-time associates. By 2009, despite the recession, we had opened a second storefront in Auburn and hired our first full-time managers.    Wrapsody invests in our staff. We employ four full-time salaried managers and 25-plus part-time associates depending upon the season. Managers and assistant managers have the opportunity to earn quarterly bonuses in addition to their annual salary. Management also receives two weeks paid vacation annually, and in 2015, we began a 401(k) plan with a 3 percent company match. We take our management team to Atlanta to Gift Market where they get to meet with key vendors and network with other retailers. We also have an offsite retreat. Our employees really value these opportunities to learn more about the industry and build professional relationships.    I tell you all of this because the Department of Labor's proposed overtime rule will suffocate this type of employment development, company growth, and positive community impact. Wrapsody simply will not be able to increase our four salaried employees to the new minimum salary of $50,440 for many reasons. First, our labor costs are a fixed percentage of our sales, which means we cannot just increase everyone's salaries by such a large amount, nor can we pass on the more than 100 percent increase along to our customers in the form of higher prices. If this new salary threshold takes effect, we will be forced to convert all salaried management to an hourly wage and require them to clock in and out.    Second, in our area of the country, we pay a very competitive salary and we offer a generous benefits package, which is why we have such an awesome team. However, the overtime rule ignores the fact that the cost of living in Hoover, Alabama is very different from that in New York City.    Third, converting salaried positions to an hourly wage adds pressure to get the job done in a 40-hour work week. An increase in overtime eligibility will not necessarily mean an increase in overtime pay for our workforce, but it will take away my managers' flexibility both personally and professionally. My managers' salary exempt status affords them a great deal of flexibility, which they truly value. For example, in August, our Auburn store manager asked to leave a few hours early because her four-year-old daughter was starting dance that day. She needed to register and get her comfortable. Of course we said yes. I mean, no-brainer. These types of incidents happen all the time. Our managers are constantly going above and beyond, and we give them the freedom to schedule themselves. They are just as much a part of our success as we are--as Sarah and I are.    Diminished flexibility will also negatively impact customer service. Right now, if a customer walks into our store a few minutes before closing at 6:00, my managers assist them even if that means that they have to stay late or stay after closing. They would never ask them to leave right at 6:00. My business depends as much on customer service as it does on unique gifts and unique products.    Beyond this loss of flexibility, converting a salaried manager back to hourly status will have a demoralizing impact. Salaried exempt status gives my managers a sense of pride of ownership and it is accompanied by a broader benefits package.    This new overtime rule is bad for employees and small business owners. I am still trying to understand the implications of all these regulations and what it means for our business, but I can tell you right now that the Department of Labor's estimates of the regulatory burden are way too low. I am not the only one who thinks this. The Small Business Administration expressed concerns in its comments that the compliance burdens and costs of the rule are way underestimated. At Wrapsody, every dollar spent on compliance burden is one less dollar that we could have used to grow our business or reinvest in our employees and our community.    In closing, we take great care of our employees. And like other retailers, we want to help our team grow. We believe careers are the answers, not timecards. The Department of Labor's ``one-size-fits-all'' salary threshold, the accompanying proposed annual increases, and any potential change to the duties test will both burden my small business and more costly mandates and limit career advancement for my team. We are trying to do what we do best at Wrapsody--we create a fun and happy environment. We sell great products. We create wonderful jobs and we give back to our community. The uncertainty and cost associated with this government overreach, like the new overtime rule, are making it much harder for us to do business and smile.    Thank you, Mr. Chairman.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman HARDY. Thank you.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Ms. SHEA. Thank you for the opportunity to share my views. I would be happy to answer questions.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman HARDY. Thank you, Ms. Shea.    We now recognize Mr. Eisenbrey, I believe it is.</t>
+  </si>
+  <si>
+    <t>EISENBREY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. EISENBREY. Hi. Thank you for inviting me to testify. My name is Ross Eisenbrey. I am the vice president of the Economic Policy Institute, a nonprofit, nonpartisan think tank created in 1986 to include the needs of low and middle income workers in economic policy discussions. EPI believes every working person deserves a good job with fair pay, affordable healthcare, retirement security, and work-life balance, and we are a small business, too. Just a tiny bit bigger maybe than Terry Shea's business.    Work-life balance is precisely what the Fair Labor Standards Act is about. Because of its requirement to pay most employees a premium for time worked beyond 40 in a week, the FLSA is the single most important family friendly law ever passed in the United States. Everyone claims to care about work life or work-family balance, but for many employers it is talk, just as it was 70 years ago. If not for the law's overtime rules, tens of millions more workers would be working 50, 60, or 70 hours a week for no additional pay, just as millions of Americans did before the FLSA was enacted in 1938.    An uninformed person might think the 40-hour work week is part of the natural order, but of course, it is not. It exists in the U.S. because President Roosevelt persuaded Congress to pass the FLSA, which by imposing a duty to pay time and a half for overtime makes it expensive for a business to work employees more than 40 hours a week. If the FLSA's regulations are not updated from time to time as the law intends, the 40-hour work week could become a thing of the past. I tis critical to remember there is no inherent difference between an hourly worker and a salaried worker. How they are paid us up to their boss. And salaried employees need time with their families and time for themselves just as much as hourly workers do. Congress recognized this in 1938 and made no distinction. Hourly workers and salaried workers alike were entitled to overtime pay, whether they were blue collar or white collar, whether they worked in a factory or an office. In fact, some of the most exploited workers at the time were women working 12-hour days, six days a week, in giant typing pools for $6 or $7 a week.    It is equally critical to remember that the employees who work in small businesses are no different from those who work in medium-size and large businesses. They, too, need time with their families and for themselves. There is no rule that says small businesses get to exploit their employees, work them excessive hours, or deny them time with their families. For all of these reasons, the Department of Labor should enact its proposed rule that would in 2016 raise the threshold below which all workers are automatically eligible for overtime to $50,440. This would be the most important improvement in the labor standards of America's working families in many years.    Now, the law is supposed to protect salaried workers, but in fact, large percentages of managers and other white collar employees say that increasingly the law is failing to protect them. And I quote this Ernest and Young Survey which shows that too little pay and excessive overtime are among the three most common reasons employees quit; that half of managers work more than 40 hours a week. Four in 10 say their hours have increased over the past five years, and that younger generations are seeing this more than the boomers did. Gen X and Millennials in particular.    The implications of this overwork are obvious in terms of work-life conflict. Who will take care of the kids? Who will go to their ballgames, school plays, or counseling meetings? The conflict is especially intense because children increasingly have two parents working at least 35 hours per week. Ernst and Young finds that over half of full-time employees in the U.S. indicate that their spouse or partner works 35 hours or more a week, but for Millennials or Gen Xers, the rates are even higher.    It is not just work-family conflict, stress, or lack of sleep that is at stake. It is also the physical health of workers. Overwork actually kills. People who work 55 hours or more per week have a 33 percent greater risk or stroke and a 13 percent greater risk of coronary heart disease than those working standard hours.    Now, you would think from the comments that you have heard that this rule is breaking some sort of new ground in setting a single standard for the whole nation. That has been the case since 1938. Every time the Department has set the overtime salary threshold it has set it a single level for the whole nation. That is not new. What is new is that the levels have fallen to the point that whereas as Ms. Adams said, at one point 65 percent of salaried workers were protected. It is now less than 10 percent in this year. And from more than 12 million being guaranteed overtime, salaried workers being guaranteed overtime in 1979, we are down to three and a half million today. So what the Department is doing is absolutely essential to restore what Congress intended as the law to protect workers from excessive work.    Thank you very much.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman HARDY. Thank you, Mr. Eisenbrey.    Now we will start a line of questions. I am going to start with myself. Each member will have an opportunity to take five minutes worth of questioning.    So with that I would just like to make one quick comment. Six hundred eighty five individuals from one organization sent letters to this Committee in opposition to this rule. It must be having a pretty good impact on their bottom line and on their employee status.    I would like to start with the business folks here. Can you tell me a little bit about what this regulation and others like it this administration have handed down, what kind of impact it has put on your business, both for time to keep up with these compliance rules, and as we all know, time is money in business, and how much more you are going to spend now versus what you did five years ago and maybe even 10 years ago.    We will start with you, Mr. Settles, if you would not mind.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. SETTLES. Thank you, Mr. Chairman.    You know, for us, the biggest headache my staff, my managers have right now is managing the schedule for the hourly workers, and it has to do with healthcare. I kind of hate to take it that direction but we pay for healthcare for about 65 out of our 200 employees, about half of our employees are half-time. So managing their hours to make sure that they are fully qualified, et cetera. And so when we look at this new regulation, it is just one more headache. Our salaried employees are asked to schedule for 45 hours a week. That is it. We are not here to kill them. We are not here to do anything else. But it gives them the flexibility to manipulate the schedules and work with the schedules. And make sure that we are covered at all hours of the day. That is really their role. And so it allows the single mom that I have that is an assistant manager to come and go and pick up her kid and take him to sporting events and go back and forth. And so that is one scheduling difficulty. We have actually created a new position in our company with three locations that her whole job is to manage the schedule for each department. This is a brand new thing, and it is not to meet the employees' requirements or the needs of the business; it is to make sure we meet all the regulatory requirements of the ACA, and now we are looking at this requirement. So it has gone up tremendously.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman HARDY. Mr. Brady or Ms. Shea?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. BRADY. I would say the regulatory burden on our industry has been huge over the last 8 to 10 years. Every new regulation and compliance to those types of regulations, including this, is a burden on the business. It raises cost. It delays construction. For instance, where I used to build homes in 90 days, now because of some of the regulatory permits that are required and the cumbersome compliance issues that we have to comply with have really extended the time to provide our product where a manufacturing company just happens to be onsite throughout the country. And so anywhere from wetlands expansion to overtime pay increases the cost to our business which inevitably raises the cost of housing to the consumer. Specifically to the overtime pay, I concur that my supervisor works 40, 45, 50 hours a week at times but in the Midwest there could be three days of snow that they do not come to the job. My supervisor does not clock in. He does not come to the office every day. He leaves from his home to go to the jobsite, and I do not know what he is doing during the day. And so in this particular regulation, it is an overreach, and frankly, I think will hurt the employee opportunity.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman HARDY. Ms. Shea, I would like to take a little different direction if you do not mind with you. In the conversations testimony you talk about where Mr. Brady, he can pass it down to his consumer, and you stated that you cannot pass it down. Could you give me the reason why you cannot and what cause and effect that is?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Ms. SHEA. Sure. Sure. You know, you are looking at a 100 percent increase, for instance. I mean, I will just use a candle. If we are retailing a candle for $20, okay, we cannot take that same candle and then tell the consumer, our customer, oh, this candle is now worth $40. I mean, what makes that candle worth that much more money? It is not the candle. It is not a bigger candle. It does not burn longer. Nothing happens with the candle. We are saying we have to pass that expense on to our consumer and they just will not pay it. And the other thing is I do not think that the larger retailers, it will hit them as much. And those are the people that we actually compete with for that, for our products.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman HARDY. Thank you. My time is expired.    I would like to recognize Ranking Member Adams.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Ms. ADAMS. Thank you, Mr. Chair. And thank you all for your testimony.    The DOL's proposed amendments set the minimum standard threshold at the 40 percentile of weekly earnings for full-time salaried workers, and based on 2013 data, this would amount to a minimum salary of $921 per week, or $47,892 annually. Yet, instead of using the 2013 data, they used projected numbers for 2016, which is $970 per week. But they did not use the same projections for the exemption for highly compensated employees.    Mr. Eisenbrey, can you explain the theory behind the DOL using projected numbers for one increase but not the other?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. EISENBREY. Actually, if that is true, I really cannot explain it. I think it does not make any difference in terms of what we are going to see as the rule. They are saying they will set it at the 90 percent level, and they will determine that next year when the rule becomes final, they will announce what that is. And for the highly compensated and for the regular standard threshold, it will be set at 40 percent and that will be determined next year. They are guessing, you know, what that level will be right now, but they will actually set it based on the data that they have in 2016. So at this point they are speculating for both of them what the value will be in 2016.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Ms. ADAMS. Okay. Mr. Brady, what are the benefits and challenges with taking an incremental approach and raising the salary threshold over a longer period of time?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. BRADY. What are the benefits you are asking?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Ms. ADAMS. Yes, and challenges.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. BRADY. Well, the challenges, I mean, this particular, the unprecedented 102 percent increases is unprecedented I should say. We are not opposed to increases, but to increase it so significantly and take many employees from a salaried position to an hourly position in particular industries, one size does not fit all. In my industry, I cannot clock in my supervisor, as an example. I cannot tell you how many hours he or she is working. So I think that the jump from 24,000 to 50,000 is incredible and cumbersome.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Ms. ADAMS. All right. What approach or which approach is more effective in achieving the goal of increasing overtime pay for workers, and what options are available to help ease the potential compliance burden of this threshold for small businesses?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. BRADY. I guess I would beg the question, is there an issue with overtime pay? I mean, many of us as small businesses, if we overwork somebody, they are going to move. They are going to go somewhere else. And my particular business, we are very loyal to our employees. If they are overworked, they are not going to be happy, and therefore, the customer service, the issues that we would have, they would move to another business. So I would beg the question that there is an issue on overtime and whether or not people are paying, or that is a problem in the industry.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Ms. ADAMS. Mr. Eisenbrey?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. EISENBREY. Yes. I can say that I have read many of the comments that were submitted to the Department of Labor, and I have personally talked to people working in retail who worked 70 hours a week for no additional compensation. They were told when they were hired that they would work 44 hours a week, and they were given so little staff that they ended up doing the work that the staff would have done, the hourly staff would have done. I know several cases where people worked themselves to the point that they were broken down physically. And they were not actually small businesses; those were larger employers--CVS and Dollar Store. But people are overworked in the United States.    And I would like to correct one very important thing here which is there is no requirement in this rule that anybody be changed from salary to hourly when this threshold changes. That is a complete misunderstanding of the rule. In fact, the Home Builders did a survey and it is testified to today where they asked, ``What will you do? What will you as a construction employer do?'` And only a third of them said that they would make any change at all; two-thirds said they would make no change. And most of them said they would not change their employees from salaried even though they would have to pay them time and a half.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Ms. ADAMS. Thank you, sir. I am out of time.    I yield back, Mr. Chairman.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman HARDY. The gentlelady yields back.    I would like to recognize Mr. Rice.</t>
+  </si>
+  <si>
+    <t>RICE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. RICE. Did you get the slide? The problem with this, Mr. Eisenbrey, you said just a minute ago that you know of several workers that worked themselves to the point of physical deterioration. This regulation, this new regulation from what I read in this memo here will affect 1.8 million people. And so I certainly do not want to see anybody overworked to the point of physical deterioration. But to say that that happens on such an isolated number of people and to dramatically affect the livelihoods, you know, the potential that their jobs will no longer exist for 1.8 million people, is such a dramatic overreach. And this Administration in six years has created more regulations than any administration since Johnson. In six years. And most of these presidents have had eight years. And the result of that is that household incomes are stagnant. They have actually dropped 8.7 percent since 2007. A lot of that was in the recession, but they have not come back. And there is a reason that they have not come back. It is because we are drowning these businesses in regulation. Between the Affordable Care Act, between the limit to access to capital under Dodd-Frank. All these things are well-intentioned. I mean, I am not saying they are not well intentioned. But they are significant constraints on small businesses. The fact is, according to Gallup--and she is working on the slides, and I did not get them to her until just now--for the last five years, more small businesses closed than have opened. And that is the result of this huge regulatory overreach. And this is just more icing on the cake.    Let me say one other thing. In reading this memo--and I am certainly no expert on this--but the Department of Labor--and I am not saying that we should abolish the Fair Labor Standards Act, and in your testimony that is what it sounded like you were trying to say. Nobody is suggesting that. What we are suggesting is that this is an enormous regulatory overreach to double this thing and make 40 percent of the salaried workers subject to it.    Do you know when the last time that occurred? Because this memo says, ``In 1958, the Department of Labor set the standard at 10 percent,'` and there has been 10 percent, the way I read this, for decades. Why would we suddenly go to 40 percent?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. EISENBREY. So I am sorry to say the memo is wrong. The way the Department used to set this back in the '50s is they would look at all of the enforcement cases that they had done and where they had found somebody to be an exempt executive, for example, then they would take the 10 percentile salary of people who they had already in their enforcement determined to be executives. It is a very different methodology you are talking about and----</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. RICE. Well, when they set it at 10 percent in 1958 for the next 12 years, the American worker enjoyed some of the most prosperous times in our history.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. EISENBREY. Yes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. RICE. And their standards of living shot through the roof.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. EISENBREY. Yes. And the percentage of----</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. RICE. And now we are going to pile more regulation on these businesses, and we are going to smother that very opportunity.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. EISENBREY. But you are misunderstanding. The percentage of salaried workers covered was over 50 percent then.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. RICE. I want to go through these slides here. If you will look at this Mercatus Center slide, this is a graph of every administration since the Johnson administration, and you will see the very top name there is Barack Obama has added 120,000 new regulations on small businesses in six years. We still have two years to go. He has outpaced every other administration.    Next slide. Skip that slide. Skip that slide. Skip that slide. All right. Back one.    That is the business closings versus business startups, and you will see since 2010, the number of small businesses dissolved in this country has outpaced business formations. And you have got to understand, small businesses employ 70 percent of the workers in this country.    Next slide. Next slide.    This is the percentage of the American population in the workforce. There are more people outside the workforce now than since the numbers have ever been recorded because we continue to pile more and more cost and regulation. As of 2013, the Small Business Administration said the cost of regulatory compliance in this country amounts to $10,500 roughly per employee per year, and it seems to me this is going to be a huge cost, this proposal.    Next slide.    This is the median household income, which is exactly what you are hitting on. If you look at that blue line, you will see since 2007, median household income has actually dropped 8.7 percent. In the same time, energy cost, utility cost, and food cost have all increased and due largely to regulatory burden placed by the federal government. Now, one point that I have here is I understand the last time this threshold was adjusted was 2004. Median household income has actually dropped since 2004. How could we possibly think that it would be right to double the threshold from 2004 when median household income has dropped? It makes no sense to me.    I am sorry. My time is up. It was more of a statement than a question.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman HARDY. The gentleman's time has expired.    I would like to recognize the Ranking Member Velazquez over Small Business.</t>
+  </si>
+  <si>
+    <t>VELAZQUEZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Ms. VELAZQUEZ. Thank you, Mr. Chairman.    I just would like to read and quote the Washington Post from 2012 regarding the cost of regulations issued by various precedents. In the last 10 fiscal years, the highest costs were imposed in 2007. The last three years of the Bush administration saw higher regulatory costs than the three years of the Obama administration. If you are looking for the year with the highest regulatory costs on record, you will have to go all the way back to 1992, under President George W. Bush. So I want the record to reflect that because it is always great to come here and make statements that do not reflect the reality. And so, look, we work in this Committee to make sure that we create a climate that is conducive for small businesses to continue to do what you do best, and that is creating jobs. But there has to be a balance, and we are trying to strike that balance here.    Mr. Eisenbrey, we have heard from some of the witnesses today that their salaried workers get workplace flexibility and benefits, like healthcare and paid time off that they will otherwise not get if paid hourly. Is it realistic for the DOL to take these other benefits into account when setting a higher threshold, and how do we value them?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. EISENBREY. Well, I do not think that the Department should. I think that this has been--remember what this law is intended to do. The Fair Labor Standards Act was meant to give everybody the right to work a 40-hour work week and to discourage employers from working people any longer than that. So the question is--and there is a very narrow exemption for executives, professionals, and administrators--the question is, who are those people? Who is this small subset of people? The way it has always been done since 1938 is to look at their salaries and to say if you make less than a certain amount, you are not valued so much by your employer, or you are not so independent and important that you should be denied overtime pay.    Now, when you look at what it costs in Bloomington or Auburn or Boise for a basic family budget, just a modest family budget, it is far greater than we are talking about with the $50,000 salary level. I mean, it is $72,000 a year in Bloomington; $62,000 in Auburn. To say that somebody making $50,000 is an executive who should not get this overtime protection when they cannot afford a basic budget I think is just wrong.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Ms. VELAZQUEZ. So currently, only about 11 percent of salaried workers qualify for overtime.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. EISENBREY. Automatically qualify.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Ms. VELAZQUEZ. Correct. The rules include an automatic inflationary adjustment. Why is this needed in the final rule?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. EISENBREY. Well, you look at the history. What happened for 29 years was because of bureaucratic hostility or neglect, the Department did not adjust the rule. Nothing happened, and the value, the protection fell to the point, as I said, from 12 million people being protected to three and a half million. If it is not set automatically, we will go through the same thing again.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Ms. VELAZQUEZ. Thank you.    Mr. Settles, the duty test is an analysis of an employee's work duties and it is used to determine exemption eligibility. However, the DOL's proposed regulations did not propose any specific changes; rather, they asked for comments on how best to alter it. Mr. Settles, what is the best way to update the duty test to accurately reflect business reality?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. SETTLES. Thank you for the question, Ranking Member Velazquez. You know, I think that it is a robust conversation and some solid proposals that can be looked at. We like the current duties test. We feel in 2004 it was dealt with appropriately, and we would like to see that same sort of process gone through again if there is insistence. We really kind of feel like in this proposal that they did not recommend a change but they threatened a change, and it is either give us this higher amount, which is significantly higher than we are today, or we are going to do this. And we do not feel that is fair. This is supposed to be an open negotiation on the entire package, not just parts and pieces.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Ms. VELAZQUEZ. Thank you.    Thank you, Mr. Chairman. I yield back.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman HARDY. Thank you. The gentlelady's time has expired.    I would like to recognize Mr. Kelly.</t>
+  </si>
+  <si>
+    <t>412673</t>
+  </si>
+  <si>
+    <t>Kelly</t>
+  </si>
+  <si>
+    <t>Trent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. KELLY. Thank you, Mr. Chairman. Thank you witnesses for being here.    One size does not fit all. I come from Mississippi, very close to Alabama there, Ms. Shea. And we have a rural district, and I can tell you, if you make $72,000 a year in my district, you are not the poor people, you are the rich people. That is a fact of life. $72,000 a year in my district is an extreme amount of money.    The other point I would like to make is one of the frontline managers in an entry level position, I started at $20,500 a year with McRae's many, many years ago in retail. But now our second lieutenants in our Army and the Marine Corps and our ensigns in our Navy are the frontline entry level leaders, the brightest, most committed, most dedicated members of our entire nation, and they make as a second lieutenant, in a managerial position, $34,862.40 a year in salary. They work a lot of overtime. I can tell you they do. They work 18 and 20 hour days because they are committed to this nation, and they are committed to their business, the largest, or one of the largest employers in this nation. And I know that it does not apply to them, but I am saying that is entry level, the brightest of our bright, our managers, who we are training to be the leaders in the future which is what our small businesses do.    Can you tell me, Ms. Shea, how this proposed rule will impact you on who you hire or what you have to do with your staff and your employees that you currently employ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Ms. SHEA. Sure. Actually, I feel like this regulation is really worse for the employee than it is for me because my expenses are fixed. I mean, I can only pay so much and still be profitable. That is just the bottom line, and I have to be competitive. I am competitive. Sarah and I are very competitive in what we pay.    I asked my manager before I came up here, one of my managers, I said, you know, what do you think about this? Because I am really going to talk for everybody up here. And she said this just inspires mediocrity because you have an assistant manager that makes one thing and you have a store manager that makes this, this amount. Yet you are getting ready with this proposed regulation, I would have to bring them up to the same wage. That is just not right. The store manager has volume responsibility. They bring a lot more experience to the table. I mean, you know, they really do it all. And we do not overwork our employees. I know that there are probably some companies that do, and shame on them. You know, I think there needs to be a safety net, but this regulation just really puts us all in a cage and it just keeps you from advancing. It keeps you from, just like you said, coming in an entry level position. We do not hire girls out of college--I hate to use the word ``girls,'' but anyway, that is who comes to my store--out of college--and pay them $50,440 to come in and manage a store with no management experience. You have to start somewhere. There has to be an entry level. And I really feel like this just totally does away with entry level positions and with middle management.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. KELLY. Mr. Settles, either you or Mr. Brady on this. $50,000 is quite a bit of money in Mississippi to be anything below that--or above that to be salary. That is a lot of money. And quite frankly, I am also a lawyer. I do not often admit that freely, but I was a prosecutor before I came here, and there is an inordinate amount of people coming out of law school who would give anything in my area to make $50,000 a year as an attorney, as a professional with an advanced degree. Do you find that in your areas--because they are different than my region--that $50,000 is an excessive wage to bring in to say you are salaried if you make or you are hourly if you make less than $50,000?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. SETTLES. I find it very interesting that there is this constant struggle in America right now to figure out how to get wages up, and I can tell you from personal experience the best way in the world to get wages up is to get unemployment down low. My managers make well above this. My full managers make well above this. It will not affect them at all. It is the people that are learning to be managers. It is the mid-level managers that will get it. Minimum wage, we do not pay that in our state. Three percent unemployment, it gets you wage increases. That is the most effective way I know.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. KELLY. Thank you. I yield back the balance of my six seconds, Mr. Chairman.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman HARDY. Thank you. I appreciate that.    I would like to recognize Mr. Takano. He is a guest of ours today here on this Committee. Thank you.</t>
+  </si>
+  <si>
+    <t>TAKANO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. TAKANO. Thank you, Mr. Chairman. I appreciate the opportunity to join the Subcommittee this morning. As you discussed, the Department of Labor's proposed update to our nation's overtime rules. While I do not serve on this Subcommittee, I have been following the development of this rule closely, and I appreciate both the chairman and the ranking member for allowing me to join in today's discussion.    There are many tradeoffs that business owners face on a constant basis, but at the end of the day, I believe the Department's rule is about a fair day's pay for a hard day's work. The intent of the white collar exemption was to exempt those with sufficient power in the labor market who are able to advocate for better wages and hours for themselves. That is clearly not the case today. In 1975, 62 percent of salaried workers were eligible for overtime. Now, only 8 percent of workers are eligible. And this is because we have not been enforcing the intent of this rule under the Fair Labor Standards Act, and we have allowed it to lapse. And all of a sudden we are realizing, oh, my goodness. Only 8 percent of our workforce is now eligible for overtime pay--salaried workforce.    Americans are working longer hours and are more productive; yet, their wages are flat. Updating the overtime exemption will help millions of workers make ends meet and give an added boost to our economy. And I just do not agree with the idea that stagnant wages are only about regulation; that we have seen stagnant wages in our country. This has been a trend, and since the Great Recession, I just do not think we can say that what is killing jobs is regulation. We had a huge thing called the Great Recession that had a huge impact on employment.    Mr. Eisenbrey, could you talk more about the argument that employers will have to pass along the increased labor costs to their consumers? Even though the income threshold is doubling, that does not mean labor costs will double. Employers will only be required to start paying for those hours over 40 hours. So I just want you to clarify that.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. EISENBREY. Yes. I think Ms. Shea gave the impression that because the threshold was doubling, she would have to double the cost of the candles she is selling. In fact, she said that she has managers who are paid in the mid-40s. If she wanted not to have to pay overtime to them and she gave them a raise to get them to the $50,000 level, that would be less than a 20 percent increase, not a 100 percent increase, and that would just be that one part of her cost. So it is just not true that this would have those kinds of effects.    I think it is really important to look at--Mr. Settles complained about regulation, you know, and its impact on business, and in his testimony, I think he said he would not move to California because of the excessive regulation, the high overtime threshold, for example, and in the restaurant business they have the tip credit. California's employment growth is the fourth greatest in the nation. It is higher than the national average. They have added more jobs and wages are going up faster in California than in the rest of the nation. So the notion that regulation is somehow squashing employment growth is just wrong.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. TAKANO. To his point about more people being employed, is it the case that if employers have to make this choice between paying their managers overtime or hiring more people, hiring more people is expanding the workforce; right?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. EISENBREY. The Retail Federation itself, the National Retail Federation--Ms. Shea is representing them today--said that in their sector alone, over 100,000 jobs would be added as a result of this rule.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. TAKANO. So the rule creates jobs?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. EISENBREY. It is a job-creating rule. I mean, they put that into the record.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. TAKANO. Imagine that. A regulation that creates jobs. Amazing.    Mr. Rice mentioned the high number of Americans outside the workforce. Mr. Eisenbrey, your testimony mentioned that there is a 10 percent employment rate. Can you talk more about the impact the rule will have on unemployment and the incentives to hire more workers? And we have just been talking about that.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. EISENBREY. I think it is very interesting to see what the home builders said in their comment that they submitted. They said that two-thirds of their businesses would make no change at all; a third would make a change. Of those that did, they would reduce overtime hours for some. Twenty-seven percent said they would raise salaries to put people over the threshold. And----</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. TAKANO. So the rule would have the effect of raising salaries and causing people to hire more people?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. EISENBREY. Exactly. Exactly.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. TAKANO. Mr. Chairman, I yield back.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman HARDY. Thank you.    I would like to recognize Mr. Bost for just a second.</t>
+  </si>
+  <si>
+    <t>BOST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. BOST. Thank you, Mr. Chairman.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman HARDY. A second is up.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. BOST. Mr. Eisenbrey, I do not know your history. I know where you are at now. But have you ever ran a business?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. BOST. Okay. What business was that?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. EISENBREY. One that I have been at since 2002, the Economic Policy Institute. It is a small business.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. BOST. Okay. All right. I would question that but that being said, I just wanted to know what the background was.    I am trying to figure out how it is that bureaucrats have the ability to understand what it is like to actually make payroll. What it is like to actually have a small business. I came from a small business. I came from several of them. And quite often what we end up having is we have government that sits here on the Hill or sits in our state capitols and truly does create such burdens on our business, and then they are shocked when they see people laid off, and they are shocked when they see businesses fail. But I need to probably just ask the panels some questions because I am listening to this and I am getting very, very frustrated because once again that is what we are doing here. We are not paying attention to the people who provide those jobs. We are not paying attention to them. We are actually almost talking down to them in the fact that why it is that they are not smart enough to understand that if they just raise their wages up to the point that they almost shut their business down, that everything is going to be hunky-dory. But the reality is that is not how it works.    Now, when this rule was first put in, and I want to ask this of Shea, Brady, and the members there with the business groups, when it was first put in and Bush proposed it, there was a process that was in place there; is that correct? What was wrong with that process in your idea?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. SETTLES. We do not know.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. BOST. Okay, so Mr. Eisenbrey, what was wrong with it in your idea?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. EISENBREY. Well, I am not sure which process you are talking about. What was wrong with the 2004 rule?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. BOST. Yes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. EISENBREY. Well, it set the salary threshold far below the level that it had been set, for example, in the Nixon and Ford administrations. It covered very few people. It said essentially that an executive was somebody whose salary was no better than the poverty level, which is crazy. It was a crazy rule, and I was opposed to it at the time, and I am very happy to see the Obama administration saying, no, an executive salary is a salary that is--it is not even the average salary in the United States, the $50,000 salary that they are proposing. But it is at least something that could support a family.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. BOST. Mr. Brady?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. BRADY. Two things I want to correct. I think Chairman Hardy suggested that we could pass cost on. That is not always the case. I know you cannot raise it to $30 on the candle, and I cannot raise the price of housing to the regulatory compliance issue that we have done. So I just wanted to correct that.    The other fallacy is in our industry there is a labor shortage. We cannot just go out and find new people. So many people have left our industry, to replace them and not pay overtime, or just stop at 40 and hire somebody else, and in my case, project managers are project managers. You cannot have three or four project managers. So they have to stay on the job. To me this is anti-worker. This is an issue to where my employee who counts on his weekly paychecks guarantees that he is going to be able to pay his bills based on that. If I move him to an hourly and we go to a cold, hard winter, Congressman, in Illinois, and he does not work for a week, he is not going to pay his utility bills. And so from my perspective, you have got to look at this as not only a small business. We have to survive. We have to know our costs. We have to be able to make a profit in order to provide 70 percent of the employees in this country, and with this rule, we would not be able to know our costs. We could not hire as many people as it might take to do the job.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. BOST. Yeah, and I do not think any one of you there does not want to pay the best wage you can possibly pay, but you have got to do it based on what your business will provide for, and I think that is something that is just being missed here completely.    And Mr. Chairman, I yield back.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman HARDY. Thank you, Mr. Bost.    I would like to take, with indulgence, go another round of questioning if you do not mind, and I will begin myself.    I apologize if there was a misunderstanding there, Mr. Brady. You may have the opportunity to do that where she was very clear that she could not pass it on.    You know, I have 40 years in the construction industry myself, and I appreciate the fact that Mr. Eisenbrey keeps bringing up that industry because the reason our salaries are going up is because of the lack of trade craftsmanship and the ability that we have to find those type of workers. They are just not there. They are not available. People are not looking at that industry like they used to. You know, I made a living out of this, but I cannot find employees. So with that, when you have less employees, it drives that portion of it up, so to say that this salary benefit of raising those salaried employees up, I do not believe has any impact on whether we change how we are. We have to keep those employees.    But Mr. Brady, I would like to go to you. With that experience, understanding that supervisor that you have hired, have you ever had a supervisor that would not rather have that salary over that hourly employee?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. BRADY. No. I mean, it is a bonus to them. I mean, they look at it as salaried employees get benefits that sometimes hourly employees do not, so it is a promotion when I move from an hourly employee to a salaried employee to run a job. So I cannot tell you that I have ever had a superintendent that says I would rather go hourly.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman HARDY. Ms. Shea?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Ms. SHEA. No. The salaried employees definitely, I mean, they want to be salaried. They enjoy the flexibility. They know that they can count on that same paycheck. If they have to leave and go to a school play, you let them go. We are very flexible. They love the flexibility. We monitor how much our employees work, our salaried associates work, because we do not want them to work too many hours. Anything over 46 hours, we comp them with a day off. I mean, and they can use it whenever they want to. If they want to use it the next week, great. But if not, if they want to save it and use it another time and tack it onto vacation, we let them do that. I looked at my books before I came, and last year my store managers worked 40 hours a week. That is what they averaged. There were some weeks when they worked more, but we compensated them for time off. And there were some weeks when they worked less because that is just the nature of my job, just like yours. You know, fourth quarter is when we make our money. That is when we go in the black, so you know, that is when the business is there, that is when the customer is there, and that is when management is there.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman HARDY. I would like to give you a quick minute, Mr. Settles, if you would not mind.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. SETTLES. You know, can I start by replying to Mr. Eisenbrey's comment about California? I have friends that do business in that state, and they are not happy, and what would the state be if I actually wanted to take my business there? So you have to count the number of businesses that are choosing not to open there because of the regulation.    Secondly, I think that a lot of that, this process came at us fairly quickly. As I said, we had a conversation. When we read the rules we were like, did they pay attention? And we have not had the time to do the analysis. I do not think most people realize, yes, we have the option to keep them at the point they are today and then plus up for every hour that they work. Figure out an overtime rate. Well, to go find the calculator and understand the process and apply it to your staff, and from my standpoint, just figuring out how you get them to be able to clock in and clock out and make sure that they keep track of things, that is not what a salaried position in my business does. They come and go and are there when they are needed, and it may sound stupid, but it is a complexity for them to actually have to start to track their hours. So we sit down at our regular reviews and go, how much do you think you are working? And we are making sure they are not working to death.    I have been open for 16 years. I have a GM that has been there for 15 years. I have a GM that has been there for 13. I have a GM that has been there for nine years, and that almost equals the length I have been open in every place. We are not losing employees because we do not pay enough. And this just changes. It is one of those things that just makes the job a little more irritating. And I will tell you right now, the number one complaint that my managers have is trying to keep track of hours that they did not have to keep track of at this level before. It just used to be just is it overtime or not overtime? Now it is do they get this benefit? Do they get that? Blah, blah, blah.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. HARDY. And what my earlier testimony stated is that this administration's own folks that represent small businesses stated themselves that they did not do a complete analysis with all the available stuff that was there to them, so I believe that this is kind of one of those surveys that might be a lot like a real estate appraiser. However hires the real estate appraisal is going to get the best appraisal. That happens in this Administration. That happens all over the country, one side or the other. So we have to look at all the data, all the folks that are happy versus ones that are not happy to make sure where we stand.    With that, my time is expired. I would like to recognize Ms. Adams.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Ms. ADAMS. Thank you, Mr. Chair.    Just one question. Mr. Eisenbrey, the 40th percentile of weekly earnings represents a significant increase for the salary threshold but may still not be enough for workers. So what would the ideal salary threshold and what kind of impact would it have for employees?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. EISENBREY. Well, that is a hard thing to say. Other people here, Mr. Brady said that he liked the 1958 methodology that the Department of Labor used. If you used an inflation adjustment from that, the salary level would be about $65,000 to $70,000 a year. So I am not saying that that is ideal, but that would be certainly, you know, using--not even taking into account the fact that we are more productive than we were in 1958 as a nation. We are wealthier. Incomes are greater. Just a pure inflation adjustment from the 1958 level would give you a level of around $65,000 a year. So this is a very modest--my point is what the Department of Labor has chosen is a modest level that takes into account the south. It takes into account rural areas. It set the level at a level where you could say at least with a straight face that a true executive, a bona fide executive is making at least this much.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Ms. ADAMS. Okay. Thank you, Mr. Chairman.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman HARDY. I would like to recognize Mr. Rice for five minutes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. RICE. I do not have the median household income as of this moment in front of me, but I believe this level would be higher than the median household income in the country. And I know, I mean, here in Washington, D.C. versus where I am from in Myrtle Beach, South Carolina, costs are vastly different. And an apartment that I am paying $2,000 a month for in Washington, D.C., would cost $600 in Myrtle Beach, South Carolina. And food costs are different. And fuel costs are different. And every other cost. So to say that a ``one-size-fits-all'' across the country is something that is justifiable is absolutely absurd and ludicrous, and by any standard it is ridiculous. And to say that placing more regulation and cost on small business creates jobs is La-la Land. It is absolutely absurd and ridiculous.    You know, we have a very small sample here, and we have got a bureaucrat, so let us talk about our samples of employers.    Mr. Settles, in your business, would this generate business for you and would you hire more employees if your cost per employee went up? In violation of all economic principles that I understand, would you hire more employees?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. SETTLES. Well, you know, if we were to do that, in our industry it would be more part-time employees and people under 30 hours to keep our costs down, and that is really not where we want to be. We have a very complex business that it takes a trained professional to work, and I think people discount how difficult it is to work in the restaurant industry.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. RICE. And are there any other recent major federal laws that you are aware of that might encourage you to hire part-time versus full-time employees?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. SETTLES. Absolutely.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. RICE. What would that be?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. SETTLES. Well, it would be the Healthcare Act.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. RICE. Yeah. So it seems that the Obama Administration is just on a direct course to let us force everybody in the country to part-time jobs.    Mr. Brady--and maybe that has something to do with the fact that, you know, wages have dropped 8.7 percent since 2007 and are not recovering. You know, maybe that has something to do with that. Mr. Brady, let me ask you, in your business, would the imposition of this regulation, or any other federal regulation that costs you $500 per employee, plus have an increased salary cost, would that somehow magically cause you to hire more employees? Or do you see that generating more income for your business?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. BRADY. No. I think just the opposite. We probably would hire contract employees versus--so our employees would probably lose their jobs and we would go to a contract basis versus having to pay them on an hourly basis. And not only my employees----</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. RICE. Well, there is another hot-button thing that we are looking to, I mean, the Obama Administration is looking to heavily regulate. Be careful there, too.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. BRADY. I understand. I understand. Not only my business, but I subcontract most of my labor, almost all of my labor, and those employees that are on an hourly basis or a salaried foreman basis of a carpenter crew would be hurt by this regulation because, again, they are a salaried employee. When there is work, they may work 60 hours that one week and they may be off next week, and they cannot afford that inconsistency and that flexibility or that inconsistent income. So I think the subcontractor base of our business, the actual worker, the skilled laborer this regulation hurts.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. RICE. Ms. Shea, do you anticipate under this regulation, or any other regulation that increase your cost per employee, do you think that would make you hire more employees or increase your income?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Ms. SHEA. No.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. RICE. No, I do not think it would either.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Ms. SHEA. Definitely not increase the income.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. RICE. That does not sound economically sound.    Would you please back up a slide or two here? Yeah, that one right there is the one I want.    I want you to look at that for a minute. You see this is since, what 1980, and you can see each recession in gray there, and you can see the result of every recession is a dramatic drop in employment, participation in the workforce. You can see, of course, the last recession was by far the deepest, and most erratic drop. Notice right after the recession what happens. In every case there is a huge snapback in employment, but you do not see that in this recession. I wonder why that is. Could it perhaps be all this additional regulation placed on these employers by the federal government? Could it perhaps be the Dodd-Frank law which limits access to capital and is stifling small business across our country? Could it perhaps be the Affordable Care Act which raises the cost per employee? And I think that this law is going to be one more nail in the coffin.    Could you back up another slide for me, please? Keep going. That slide right there.    I think that is the most telling slide, and the most scary thing, most scary fact that is occurring in this United States economy, and that is that more businesses are dissolving in our American economy than are being formed. Over five years in a row. And I do not think it has happened for one year since the Great Depression. This is a horrifying statistic, and it bodes very poorly for our children and our grandchildren. And if we do not get the federal government off the backs of small businesses, expect this not to turn around but to accelerate.    My time has expired.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman HARDY. The gentleman's time has expired.    I would like to thank all the witnesses, especially those small businesses that have traveled so far, again, for being here today. This ``one-size-fits-all'' regulation that will hurt small businesses and their workers, particularly those in the rural areas, I will be sending a letter to the Department of Labor about the concerns we have heard here today and urge them to reconsider moving forward on this rule as drafted.    I am asking the members for unanimous consent; that I have five legislative days to submit the statements and supporting materials for the record.    Without objection, so ordered.    This hearing is now over. Thank you.</t>
   </si>
 </sst>
 </file>
@@ -407,7 +794,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:J114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -415,7 +802,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -440,33 +827,3317 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" t="s"/>
+      <c r="H7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" t="s"/>
+      <c r="J7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" t="s"/>
+      <c r="H9" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9" t="s"/>
+      <c r="J9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" t="s">
         <v>13</v>
       </c>
-      <c r="H2" t="s">
+      <c r="G10" t="s">
         <v>14</v>
       </c>
-      <c r="I2" t="s"/>
+      <c r="H10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" t="s"/>
+      <c r="H11" t="s">
+        <v>32</v>
+      </c>
+      <c r="I11" t="s"/>
+      <c r="J11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" t="s"/>
+      <c r="H13" t="s">
+        <v>32</v>
+      </c>
+      <c r="I13" t="s"/>
+      <c r="J13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" t="s">
+        <v>16</v>
+      </c>
+      <c r="J14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" t="s">
+        <v>25</v>
+      </c>
+      <c r="G15" t="s"/>
+      <c r="H15" t="s">
+        <v>37</v>
+      </c>
+      <c r="I15" t="s"/>
+      <c r="J15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" t="s">
+        <v>15</v>
+      </c>
+      <c r="I16" t="s">
+        <v>16</v>
+      </c>
+      <c r="J16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" t="s">
+        <v>25</v>
+      </c>
+      <c r="G17" t="s"/>
+      <c r="H17" t="s">
+        <v>26</v>
+      </c>
+      <c r="I17" t="s"/>
+      <c r="J17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18" t="s">
+        <v>15</v>
+      </c>
+      <c r="I18" t="s">
+        <v>16</v>
+      </c>
+      <c r="J18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" t="s">
+        <v>25</v>
+      </c>
+      <c r="G19" t="s"/>
+      <c r="H19" t="s">
+        <v>29</v>
+      </c>
+      <c r="I19" t="s"/>
+      <c r="J19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" t="s">
+        <v>14</v>
+      </c>
+      <c r="H20" t="s">
+        <v>15</v>
+      </c>
+      <c r="I20" t="s">
+        <v>16</v>
+      </c>
+      <c r="J20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" t="s">
+        <v>25</v>
+      </c>
+      <c r="G21" t="s"/>
+      <c r="H21" t="s">
+        <v>32</v>
+      </c>
+      <c r="I21" t="s"/>
+      <c r="J21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" t="s">
+        <v>14</v>
+      </c>
+      <c r="H22" t="s">
+        <v>15</v>
+      </c>
+      <c r="I22" t="s">
+        <v>16</v>
+      </c>
+      <c r="J22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" t="s">
+        <v>18</v>
+      </c>
+      <c r="G23" t="s">
+        <v>14</v>
+      </c>
+      <c r="H23" t="s">
+        <v>19</v>
+      </c>
+      <c r="I23" t="s">
+        <v>20</v>
+      </c>
+      <c r="J23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" t="s">
+        <v>25</v>
+      </c>
+      <c r="G24" t="s"/>
+      <c r="H24" t="s">
+        <v>37</v>
+      </c>
+      <c r="I24" t="s"/>
+      <c r="J24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" t="s">
+        <v>18</v>
+      </c>
+      <c r="G25" t="s">
+        <v>14</v>
+      </c>
+      <c r="H25" t="s">
+        <v>19</v>
+      </c>
+      <c r="I25" t="s">
+        <v>20</v>
+      </c>
+      <c r="J25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" t="s">
+        <v>25</v>
+      </c>
+      <c r="G26" t="s"/>
+      <c r="H26" t="s">
+        <v>29</v>
+      </c>
+      <c r="I26" t="s"/>
+      <c r="J26" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27" t="s">
+        <v>18</v>
+      </c>
+      <c r="G27" t="s">
+        <v>14</v>
+      </c>
+      <c r="H27" t="s">
+        <v>19</v>
+      </c>
+      <c r="I27" t="s">
+        <v>20</v>
+      </c>
+      <c r="J27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" t="s">
+        <v>25</v>
+      </c>
+      <c r="G28" t="s"/>
+      <c r="H28" t="s">
+        <v>29</v>
+      </c>
+      <c r="I28" t="s"/>
+      <c r="J28" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29" t="s">
+        <v>18</v>
+      </c>
+      <c r="G29" t="s">
+        <v>14</v>
+      </c>
+      <c r="H29" t="s">
+        <v>19</v>
+      </c>
+      <c r="I29" t="s">
+        <v>20</v>
+      </c>
+      <c r="J29" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30" t="s">
+        <v>25</v>
+      </c>
+      <c r="G30" t="s"/>
+      <c r="H30" t="s">
+        <v>29</v>
+      </c>
+      <c r="I30" t="s"/>
+      <c r="J30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" t="s">
+        <v>12</v>
+      </c>
+      <c r="F31" t="s">
+        <v>18</v>
+      </c>
+      <c r="G31" t="s">
+        <v>14</v>
+      </c>
+      <c r="H31" t="s">
+        <v>19</v>
+      </c>
+      <c r="I31" t="s">
+        <v>20</v>
+      </c>
+      <c r="J31" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" t="s">
+        <v>12</v>
+      </c>
+      <c r="F32" t="s">
+        <v>25</v>
+      </c>
+      <c r="G32" t="s"/>
+      <c r="H32" t="s">
+        <v>37</v>
+      </c>
+      <c r="I32" t="s"/>
+      <c r="J32" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" t="s">
+        <v>10</v>
+      </c>
+      <c r="D33" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33" t="s">
+        <v>12</v>
+      </c>
+      <c r="F33" t="s">
+        <v>18</v>
+      </c>
+      <c r="G33" t="s">
+        <v>14</v>
+      </c>
+      <c r="H33" t="s">
+        <v>19</v>
+      </c>
+      <c r="I33" t="s">
+        <v>20</v>
+      </c>
+      <c r="J33" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34" t="s">
+        <v>11</v>
+      </c>
+      <c r="E34" t="s">
+        <v>12</v>
+      </c>
+      <c r="F34" t="s">
+        <v>13</v>
+      </c>
+      <c r="G34" t="s">
+        <v>14</v>
+      </c>
+      <c r="H34" t="s">
+        <v>15</v>
+      </c>
+      <c r="I34" t="s">
+        <v>16</v>
+      </c>
+      <c r="J34" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" t="s">
+        <v>12</v>
+      </c>
+      <c r="F35" t="s">
+        <v>25</v>
+      </c>
+      <c r="G35" t="s"/>
+      <c r="H35" t="s">
+        <v>58</v>
+      </c>
+      <c r="I35" t="s"/>
+      <c r="J35" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36" t="s">
+        <v>12</v>
+      </c>
+      <c r="F36" t="s">
+        <v>25</v>
+      </c>
+      <c r="G36" t="s"/>
+      <c r="H36" t="s">
+        <v>37</v>
+      </c>
+      <c r="I36" t="s"/>
+      <c r="J36" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" t="s">
+        <v>10</v>
+      </c>
+      <c r="D37" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37" t="s">
+        <v>12</v>
+      </c>
+      <c r="F37" t="s">
+        <v>25</v>
+      </c>
+      <c r="G37" t="s"/>
+      <c r="H37" t="s">
+        <v>58</v>
+      </c>
+      <c r="I37" t="s"/>
+      <c r="J37" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38" t="s">
+        <v>11</v>
+      </c>
+      <c r="E38" t="s">
+        <v>12</v>
+      </c>
+      <c r="F38" t="s">
+        <v>25</v>
+      </c>
+      <c r="G38" t="s"/>
+      <c r="H38" t="s">
+        <v>37</v>
+      </c>
+      <c r="I38" t="s"/>
+      <c r="J38" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" t="s">
+        <v>10</v>
+      </c>
+      <c r="D39" t="s">
+        <v>11</v>
+      </c>
+      <c r="E39" t="s">
+        <v>12</v>
+      </c>
+      <c r="F39" t="s">
+        <v>25</v>
+      </c>
+      <c r="G39" t="s"/>
+      <c r="H39" t="s">
+        <v>58</v>
+      </c>
+      <c r="I39" t="s"/>
+      <c r="J39" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" t="s">
+        <v>10</v>
+      </c>
+      <c r="D40" t="s">
+        <v>11</v>
+      </c>
+      <c r="E40" t="s">
+        <v>12</v>
+      </c>
+      <c r="F40" t="s">
+        <v>25</v>
+      </c>
+      <c r="G40" t="s"/>
+      <c r="H40" t="s">
+        <v>37</v>
+      </c>
+      <c r="I40" t="s"/>
+      <c r="J40" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" t="s">
+        <v>10</v>
+      </c>
+      <c r="D41" t="s">
+        <v>11</v>
+      </c>
+      <c r="E41" t="s">
+        <v>12</v>
+      </c>
+      <c r="F41" t="s">
+        <v>25</v>
+      </c>
+      <c r="G41" t="s"/>
+      <c r="H41" t="s">
+        <v>58</v>
+      </c>
+      <c r="I41" t="s"/>
+      <c r="J41" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" t="s">
+        <v>10</v>
+      </c>
+      <c r="D42" t="s">
+        <v>11</v>
+      </c>
+      <c r="E42" t="s">
+        <v>12</v>
+      </c>
+      <c r="F42" t="s">
+        <v>25</v>
+      </c>
+      <c r="G42" t="s"/>
+      <c r="H42" t="s">
+        <v>37</v>
+      </c>
+      <c r="I42" t="s"/>
+      <c r="J42" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43" t="s">
+        <v>10</v>
+      </c>
+      <c r="D43" t="s">
+        <v>11</v>
+      </c>
+      <c r="E43" t="s">
+        <v>12</v>
+      </c>
+      <c r="F43" t="s">
+        <v>25</v>
+      </c>
+      <c r="G43" t="s"/>
+      <c r="H43" t="s">
+        <v>58</v>
+      </c>
+      <c r="I43" t="s"/>
+      <c r="J43" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" t="s">
+        <v>10</v>
+      </c>
+      <c r="D44" t="s">
+        <v>11</v>
+      </c>
+      <c r="E44" t="s">
+        <v>12</v>
+      </c>
+      <c r="F44" t="s">
+        <v>13</v>
+      </c>
+      <c r="G44" t="s">
+        <v>14</v>
+      </c>
+      <c r="H44" t="s">
+        <v>15</v>
+      </c>
+      <c r="I44" t="s">
+        <v>16</v>
+      </c>
+      <c r="J44" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45" t="s">
+        <v>10</v>
+      </c>
+      <c r="D45" t="s">
+        <v>11</v>
+      </c>
+      <c r="E45" t="s">
+        <v>12</v>
+      </c>
+      <c r="F45" t="s">
+        <v>25</v>
+      </c>
+      <c r="G45" t="s"/>
+      <c r="H45" t="s">
+        <v>69</v>
+      </c>
+      <c r="I45" t="s"/>
+      <c r="J45" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46" t="s">
+        <v>10</v>
+      </c>
+      <c r="D46" t="s">
+        <v>11</v>
+      </c>
+      <c r="E46" t="s">
+        <v>12</v>
+      </c>
+      <c r="F46" t="s">
+        <v>25</v>
+      </c>
+      <c r="G46" t="s"/>
+      <c r="H46" t="s">
+        <v>37</v>
+      </c>
+      <c r="I46" t="s"/>
+      <c r="J46" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47" t="s">
+        <v>10</v>
+      </c>
+      <c r="D47" t="s">
+        <v>11</v>
+      </c>
+      <c r="E47" t="s">
+        <v>12</v>
+      </c>
+      <c r="F47" t="s">
+        <v>25</v>
+      </c>
+      <c r="G47" t="s"/>
+      <c r="H47" t="s">
+        <v>69</v>
+      </c>
+      <c r="I47" t="s"/>
+      <c r="J47" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>9</v>
+      </c>
+      <c r="C48" t="s">
+        <v>10</v>
+      </c>
+      <c r="D48" t="s">
+        <v>11</v>
+      </c>
+      <c r="E48" t="s">
+        <v>12</v>
+      </c>
+      <c r="F48" t="s">
+        <v>25</v>
+      </c>
+      <c r="G48" t="s"/>
+      <c r="H48" t="s">
+        <v>37</v>
+      </c>
+      <c r="I48" t="s"/>
+      <c r="J48" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>9</v>
+      </c>
+      <c r="C49" t="s">
+        <v>10</v>
+      </c>
+      <c r="D49" t="s">
+        <v>11</v>
+      </c>
+      <c r="E49" t="s">
+        <v>12</v>
+      </c>
+      <c r="F49" t="s">
+        <v>25</v>
+      </c>
+      <c r="G49" t="s"/>
+      <c r="H49" t="s">
+        <v>69</v>
+      </c>
+      <c r="I49" t="s"/>
+      <c r="J49" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>9</v>
+      </c>
+      <c r="C50" t="s">
+        <v>10</v>
+      </c>
+      <c r="D50" t="s">
+        <v>11</v>
+      </c>
+      <c r="E50" t="s">
+        <v>12</v>
+      </c>
+      <c r="F50" t="s">
+        <v>25</v>
+      </c>
+      <c r="G50" t="s"/>
+      <c r="H50" t="s">
+        <v>37</v>
+      </c>
+      <c r="I50" t="s"/>
+      <c r="J50" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>9</v>
+      </c>
+      <c r="C51" t="s">
+        <v>10</v>
+      </c>
+      <c r="D51" t="s">
+        <v>11</v>
+      </c>
+      <c r="E51" t="s">
+        <v>12</v>
+      </c>
+      <c r="F51" t="s">
+        <v>25</v>
+      </c>
+      <c r="G51" t="s"/>
+      <c r="H51" t="s">
+        <v>69</v>
+      </c>
+      <c r="I51" t="s"/>
+      <c r="J51" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>9</v>
+      </c>
+      <c r="C52" t="s">
+        <v>10</v>
+      </c>
+      <c r="D52" t="s">
+        <v>11</v>
+      </c>
+      <c r="E52" t="s">
+        <v>12</v>
+      </c>
+      <c r="F52" t="s">
+        <v>25</v>
+      </c>
+      <c r="G52" t="s"/>
+      <c r="H52" t="s">
+        <v>26</v>
+      </c>
+      <c r="I52" t="s"/>
+      <c r="J52" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>9</v>
+      </c>
+      <c r="C53" t="s">
+        <v>10</v>
+      </c>
+      <c r="D53" t="s">
+        <v>11</v>
+      </c>
+      <c r="E53" t="s">
+        <v>12</v>
+      </c>
+      <c r="F53" t="s">
+        <v>25</v>
+      </c>
+      <c r="G53" t="s"/>
+      <c r="H53" t="s">
+        <v>69</v>
+      </c>
+      <c r="I53" t="s"/>
+      <c r="J53" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>9</v>
+      </c>
+      <c r="C54" t="s">
+        <v>10</v>
+      </c>
+      <c r="D54" t="s">
+        <v>11</v>
+      </c>
+      <c r="E54" t="s">
+        <v>12</v>
+      </c>
+      <c r="F54" t="s">
+        <v>13</v>
+      </c>
+      <c r="G54" t="s">
+        <v>14</v>
+      </c>
+      <c r="H54" t="s">
+        <v>15</v>
+      </c>
+      <c r="I54" t="s">
+        <v>16</v>
+      </c>
+      <c r="J54" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>9</v>
+      </c>
+      <c r="C55" t="s">
+        <v>10</v>
+      </c>
+      <c r="D55" t="s">
+        <v>11</v>
+      </c>
+      <c r="E55" t="s">
+        <v>12</v>
+      </c>
+      <c r="F55" t="s">
+        <v>80</v>
+      </c>
+      <c r="G55" t="s">
+        <v>14</v>
+      </c>
+      <c r="H55" t="s">
+        <v>81</v>
+      </c>
+      <c r="I55" t="s">
+        <v>82</v>
+      </c>
+      <c r="J55" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>9</v>
+      </c>
+      <c r="C56" t="s">
+        <v>10</v>
+      </c>
+      <c r="D56" t="s">
+        <v>11</v>
+      </c>
+      <c r="E56" t="s">
+        <v>12</v>
+      </c>
+      <c r="F56" t="s">
+        <v>25</v>
+      </c>
+      <c r="G56" t="s"/>
+      <c r="H56" t="s">
+        <v>32</v>
+      </c>
+      <c r="I56" t="s"/>
+      <c r="J56" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>9</v>
+      </c>
+      <c r="C57" t="s">
+        <v>10</v>
+      </c>
+      <c r="D57" t="s">
+        <v>11</v>
+      </c>
+      <c r="E57" t="s">
+        <v>12</v>
+      </c>
+      <c r="F57" t="s">
+        <v>80</v>
+      </c>
+      <c r="G57" t="s">
+        <v>14</v>
+      </c>
+      <c r="H57" t="s">
+        <v>81</v>
+      </c>
+      <c r="I57" t="s">
+        <v>82</v>
+      </c>
+      <c r="J57" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>9</v>
+      </c>
+      <c r="C58" t="s">
+        <v>10</v>
+      </c>
+      <c r="D58" t="s">
+        <v>11</v>
+      </c>
+      <c r="E58" t="s">
+        <v>12</v>
+      </c>
+      <c r="F58" t="s">
+        <v>25</v>
+      </c>
+      <c r="G58" t="s"/>
+      <c r="H58" t="s">
+        <v>26</v>
+      </c>
+      <c r="I58" t="s"/>
+      <c r="J58" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>9</v>
+      </c>
+      <c r="C59" t="s">
+        <v>10</v>
+      </c>
+      <c r="D59" t="s">
+        <v>11</v>
+      </c>
+      <c r="E59" t="s">
+        <v>12</v>
+      </c>
+      <c r="F59" t="s">
+        <v>80</v>
+      </c>
+      <c r="G59" t="s">
+        <v>14</v>
+      </c>
+      <c r="H59" t="s">
+        <v>81</v>
+      </c>
+      <c r="I59" t="s">
+        <v>82</v>
+      </c>
+      <c r="J59" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>9</v>
+      </c>
+      <c r="C60" t="s">
+        <v>10</v>
+      </c>
+      <c r="D60" t="s">
+        <v>11</v>
+      </c>
+      <c r="E60" t="s">
+        <v>12</v>
+      </c>
+      <c r="F60" t="s">
+        <v>13</v>
+      </c>
+      <c r="G60" t="s">
+        <v>14</v>
+      </c>
+      <c r="H60" t="s">
+        <v>15</v>
+      </c>
+      <c r="I60" t="s">
+        <v>16</v>
+      </c>
+      <c r="J60" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>9</v>
+      </c>
+      <c r="C61" t="s">
+        <v>10</v>
+      </c>
+      <c r="D61" t="s">
+        <v>11</v>
+      </c>
+      <c r="E61" t="s">
+        <v>12</v>
+      </c>
+      <c r="F61" t="s">
+        <v>25</v>
+      </c>
+      <c r="G61" t="s"/>
+      <c r="H61" t="s">
+        <v>89</v>
+      </c>
+      <c r="I61" t="s"/>
+      <c r="J61" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>9</v>
+      </c>
+      <c r="C62" t="s">
+        <v>10</v>
+      </c>
+      <c r="D62" t="s">
+        <v>11</v>
+      </c>
+      <c r="E62" t="s">
+        <v>12</v>
+      </c>
+      <c r="F62" t="s">
+        <v>25</v>
+      </c>
+      <c r="G62" t="s"/>
+      <c r="H62" t="s">
+        <v>37</v>
+      </c>
+      <c r="I62" t="s"/>
+      <c r="J62" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>9</v>
+      </c>
+      <c r="C63" t="s">
+        <v>10</v>
+      </c>
+      <c r="D63" t="s">
+        <v>11</v>
+      </c>
+      <c r="E63" t="s">
+        <v>12</v>
+      </c>
+      <c r="F63" t="s">
+        <v>25</v>
+      </c>
+      <c r="G63" t="s"/>
+      <c r="H63" t="s">
+        <v>89</v>
+      </c>
+      <c r="I63" t="s"/>
+      <c r="J63" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>9</v>
+      </c>
+      <c r="C64" t="s">
+        <v>10</v>
+      </c>
+      <c r="D64" t="s">
+        <v>11</v>
+      </c>
+      <c r="E64" t="s">
+        <v>12</v>
+      </c>
+      <c r="F64" t="s">
+        <v>25</v>
+      </c>
+      <c r="G64" t="s"/>
+      <c r="H64" t="s">
+        <v>37</v>
+      </c>
+      <c r="I64" t="s"/>
+      <c r="J64" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>9</v>
+      </c>
+      <c r="C65" t="s">
+        <v>10</v>
+      </c>
+      <c r="D65" t="s">
+        <v>11</v>
+      </c>
+      <c r="E65" t="s">
+        <v>12</v>
+      </c>
+      <c r="F65" t="s">
+        <v>25</v>
+      </c>
+      <c r="G65" t="s"/>
+      <c r="H65" t="s">
+        <v>89</v>
+      </c>
+      <c r="I65" t="s"/>
+      <c r="J65" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
+        <v>9</v>
+      </c>
+      <c r="C66" t="s">
+        <v>10</v>
+      </c>
+      <c r="D66" t="s">
+        <v>11</v>
+      </c>
+      <c r="E66" t="s">
+        <v>12</v>
+      </c>
+      <c r="F66" t="s">
+        <v>25</v>
+      </c>
+      <c r="G66" t="s"/>
+      <c r="H66" t="s">
+        <v>37</v>
+      </c>
+      <c r="I66" t="s"/>
+      <c r="J66" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
+        <v>9</v>
+      </c>
+      <c r="C67" t="s">
+        <v>10</v>
+      </c>
+      <c r="D67" t="s">
+        <v>11</v>
+      </c>
+      <c r="E67" t="s">
+        <v>12</v>
+      </c>
+      <c r="F67" t="s">
+        <v>25</v>
+      </c>
+      <c r="G67" t="s"/>
+      <c r="H67" t="s">
+        <v>89</v>
+      </c>
+      <c r="I67" t="s"/>
+      <c r="J67" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="s">
+        <v>9</v>
+      </c>
+      <c r="C68" t="s">
+        <v>10</v>
+      </c>
+      <c r="D68" t="s">
+        <v>11</v>
+      </c>
+      <c r="E68" t="s">
+        <v>12</v>
+      </c>
+      <c r="F68" t="s">
+        <v>25</v>
+      </c>
+      <c r="G68" t="s"/>
+      <c r="H68" t="s">
+        <v>37</v>
+      </c>
+      <c r="I68" t="s"/>
+      <c r="J68" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="s">
+        <v>9</v>
+      </c>
+      <c r="C69" t="s">
+        <v>10</v>
+      </c>
+      <c r="D69" t="s">
+        <v>11</v>
+      </c>
+      <c r="E69" t="s">
+        <v>12</v>
+      </c>
+      <c r="F69" t="s">
+        <v>25</v>
+      </c>
+      <c r="G69" t="s"/>
+      <c r="H69" t="s">
+        <v>89</v>
+      </c>
+      <c r="I69" t="s"/>
+      <c r="J69" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="s">
+        <v>9</v>
+      </c>
+      <c r="C70" t="s">
+        <v>10</v>
+      </c>
+      <c r="D70" t="s">
+        <v>11</v>
+      </c>
+      <c r="E70" t="s">
+        <v>12</v>
+      </c>
+      <c r="F70" t="s">
+        <v>25</v>
+      </c>
+      <c r="G70" t="s"/>
+      <c r="H70" t="s">
+        <v>37</v>
+      </c>
+      <c r="I70" t="s"/>
+      <c r="J70" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="s">
+        <v>9</v>
+      </c>
+      <c r="C71" t="s">
+        <v>10</v>
+      </c>
+      <c r="D71" t="s">
+        <v>11</v>
+      </c>
+      <c r="E71" t="s">
+        <v>12</v>
+      </c>
+      <c r="F71" t="s">
+        <v>25</v>
+      </c>
+      <c r="G71" t="s"/>
+      <c r="H71" t="s">
+        <v>89</v>
+      </c>
+      <c r="I71" t="s"/>
+      <c r="J71" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="s">
+        <v>9</v>
+      </c>
+      <c r="C72" t="s">
+        <v>10</v>
+      </c>
+      <c r="D72" t="s">
+        <v>11</v>
+      </c>
+      <c r="E72" t="s">
+        <v>12</v>
+      </c>
+      <c r="F72" t="s">
+        <v>13</v>
+      </c>
+      <c r="G72" t="s">
+        <v>14</v>
+      </c>
+      <c r="H72" t="s">
+        <v>15</v>
+      </c>
+      <c r="I72" t="s">
+        <v>16</v>
+      </c>
+      <c r="J72" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="s">
+        <v>9</v>
+      </c>
+      <c r="C73" t="s">
+        <v>10</v>
+      </c>
+      <c r="D73" t="s">
+        <v>11</v>
+      </c>
+      <c r="E73" t="s">
+        <v>12</v>
+      </c>
+      <c r="F73" t="s">
+        <v>25</v>
+      </c>
+      <c r="G73" t="s"/>
+      <c r="H73" t="s">
+        <v>102</v>
+      </c>
+      <c r="I73" t="s"/>
+      <c r="J73" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="s">
+        <v>9</v>
+      </c>
+      <c r="C74" t="s">
+        <v>10</v>
+      </c>
+      <c r="D74" t="s">
+        <v>11</v>
+      </c>
+      <c r="E74" t="s">
+        <v>12</v>
+      </c>
+      <c r="F74" t="s">
+        <v>13</v>
+      </c>
+      <c r="G74" t="s">
+        <v>14</v>
+      </c>
+      <c r="H74" t="s">
+        <v>15</v>
+      </c>
+      <c r="I74" t="s">
+        <v>16</v>
+      </c>
+      <c r="J74" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="s">
+        <v>9</v>
+      </c>
+      <c r="C75" t="s">
+        <v>10</v>
+      </c>
+      <c r="D75" t="s">
+        <v>11</v>
+      </c>
+      <c r="E75" t="s">
+        <v>12</v>
+      </c>
+      <c r="F75" t="s">
+        <v>25</v>
+      </c>
+      <c r="G75" t="s"/>
+      <c r="H75" t="s">
+        <v>102</v>
+      </c>
+      <c r="I75" t="s"/>
+      <c r="J75" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="s">
+        <v>9</v>
+      </c>
+      <c r="C76" t="s">
+        <v>10</v>
+      </c>
+      <c r="D76" t="s">
+        <v>11</v>
+      </c>
+      <c r="E76" t="s">
+        <v>12</v>
+      </c>
+      <c r="F76" t="s">
+        <v>25</v>
+      </c>
+      <c r="G76" t="s"/>
+      <c r="H76" t="s">
+        <v>37</v>
+      </c>
+      <c r="I76" t="s"/>
+      <c r="J76" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="s">
+        <v>9</v>
+      </c>
+      <c r="C77" t="s">
+        <v>10</v>
+      </c>
+      <c r="D77" t="s">
+        <v>11</v>
+      </c>
+      <c r="E77" t="s">
+        <v>12</v>
+      </c>
+      <c r="F77" t="s">
+        <v>25</v>
+      </c>
+      <c r="G77" t="s"/>
+      <c r="H77" t="s">
+        <v>102</v>
+      </c>
+      <c r="I77" t="s"/>
+      <c r="J77" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="s">
+        <v>9</v>
+      </c>
+      <c r="C78" t="s">
+        <v>10</v>
+      </c>
+      <c r="D78" t="s">
+        <v>11</v>
+      </c>
+      <c r="E78" t="s">
+        <v>12</v>
+      </c>
+      <c r="F78" t="s">
+        <v>25</v>
+      </c>
+      <c r="G78" t="s"/>
+      <c r="H78" t="s">
+        <v>37</v>
+      </c>
+      <c r="I78" t="s"/>
+      <c r="J78" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="s">
+        <v>9</v>
+      </c>
+      <c r="C79" t="s">
+        <v>10</v>
+      </c>
+      <c r="D79" t="s">
+        <v>11</v>
+      </c>
+      <c r="E79" t="s">
+        <v>12</v>
+      </c>
+      <c r="F79" t="s">
+        <v>25</v>
+      </c>
+      <c r="G79" t="s"/>
+      <c r="H79" t="s">
+        <v>102</v>
+      </c>
+      <c r="I79" t="s"/>
+      <c r="J79" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="s">
+        <v>9</v>
+      </c>
+      <c r="C80" t="s">
+        <v>10</v>
+      </c>
+      <c r="D80" t="s">
+        <v>11</v>
+      </c>
+      <c r="E80" t="s">
+        <v>12</v>
+      </c>
+      <c r="F80" t="s">
+        <v>25</v>
+      </c>
+      <c r="G80" t="s"/>
+      <c r="H80" t="s">
+        <v>26</v>
+      </c>
+      <c r="I80" t="s"/>
+      <c r="J80" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="s">
+        <v>9</v>
+      </c>
+      <c r="C81" t="s">
+        <v>10</v>
+      </c>
+      <c r="D81" t="s">
+        <v>11</v>
+      </c>
+      <c r="E81" t="s">
+        <v>12</v>
+      </c>
+      <c r="F81" t="s">
+        <v>25</v>
+      </c>
+      <c r="G81" t="s"/>
+      <c r="H81" t="s">
+        <v>102</v>
+      </c>
+      <c r="I81" t="s"/>
+      <c r="J81" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="s">
+        <v>9</v>
+      </c>
+      <c r="C82" t="s">
+        <v>10</v>
+      </c>
+      <c r="D82" t="s">
+        <v>11</v>
+      </c>
+      <c r="E82" t="s">
+        <v>12</v>
+      </c>
+      <c r="F82" t="s">
+        <v>25</v>
+      </c>
+      <c r="G82" t="s"/>
+      <c r="H82" t="s">
+        <v>37</v>
+      </c>
+      <c r="I82" t="s"/>
+      <c r="J82" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="s">
+        <v>9</v>
+      </c>
+      <c r="C83" t="s">
+        <v>10</v>
+      </c>
+      <c r="D83" t="s">
+        <v>11</v>
+      </c>
+      <c r="E83" t="s">
+        <v>12</v>
+      </c>
+      <c r="F83" t="s">
+        <v>25</v>
+      </c>
+      <c r="G83" t="s"/>
+      <c r="H83" t="s">
+        <v>102</v>
+      </c>
+      <c r="I83" t="s"/>
+      <c r="J83" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="s">
+        <v>9</v>
+      </c>
+      <c r="C84" t="s">
+        <v>10</v>
+      </c>
+      <c r="D84" t="s">
+        <v>11</v>
+      </c>
+      <c r="E84" t="s">
+        <v>12</v>
+      </c>
+      <c r="F84" t="s">
+        <v>25</v>
+      </c>
+      <c r="G84" t="s"/>
+      <c r="H84" t="s">
+        <v>37</v>
+      </c>
+      <c r="I84" t="s"/>
+      <c r="J84" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="s">
+        <v>9</v>
+      </c>
+      <c r="C85" t="s">
+        <v>10</v>
+      </c>
+      <c r="D85" t="s">
+        <v>11</v>
+      </c>
+      <c r="E85" t="s">
+        <v>12</v>
+      </c>
+      <c r="F85" t="s">
+        <v>25</v>
+      </c>
+      <c r="G85" t="s"/>
+      <c r="H85" t="s">
+        <v>102</v>
+      </c>
+      <c r="I85" t="s"/>
+      <c r="J85" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="s">
+        <v>9</v>
+      </c>
+      <c r="C86" t="s">
+        <v>10</v>
+      </c>
+      <c r="D86" t="s">
+        <v>11</v>
+      </c>
+      <c r="E86" t="s">
+        <v>12</v>
+      </c>
+      <c r="F86" t="s">
+        <v>25</v>
+      </c>
+      <c r="G86" t="s"/>
+      <c r="H86" t="s">
+        <v>29</v>
+      </c>
+      <c r="I86" t="s"/>
+      <c r="J86" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="s">
+        <v>9</v>
+      </c>
+      <c r="C87" t="s">
+        <v>10</v>
+      </c>
+      <c r="D87" t="s">
+        <v>11</v>
+      </c>
+      <c r="E87" t="s">
+        <v>12</v>
+      </c>
+      <c r="F87" t="s">
+        <v>25</v>
+      </c>
+      <c r="G87" t="s"/>
+      <c r="H87" t="s">
+        <v>102</v>
+      </c>
+      <c r="I87" t="s"/>
+      <c r="J87" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="s">
+        <v>9</v>
+      </c>
+      <c r="C88" t="s">
+        <v>10</v>
+      </c>
+      <c r="D88" t="s">
+        <v>11</v>
+      </c>
+      <c r="E88" t="s">
+        <v>12</v>
+      </c>
+      <c r="F88" t="s">
+        <v>13</v>
+      </c>
+      <c r="G88" t="s">
+        <v>14</v>
+      </c>
+      <c r="H88" t="s">
+        <v>15</v>
+      </c>
+      <c r="I88" t="s">
+        <v>16</v>
+      </c>
+      <c r="J88" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="s">
+        <v>9</v>
+      </c>
+      <c r="C89" t="s">
+        <v>10</v>
+      </c>
+      <c r="D89" t="s">
+        <v>11</v>
+      </c>
+      <c r="E89" t="s">
+        <v>12</v>
+      </c>
+      <c r="F89" t="s">
+        <v>25</v>
+      </c>
+      <c r="G89" t="s"/>
+      <c r="H89" t="s">
+        <v>29</v>
+      </c>
+      <c r="I89" t="s"/>
+      <c r="J89" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="s">
+        <v>9</v>
+      </c>
+      <c r="C90" t="s">
+        <v>10</v>
+      </c>
+      <c r="D90" t="s">
+        <v>11</v>
+      </c>
+      <c r="E90" t="s">
+        <v>12</v>
+      </c>
+      <c r="F90" t="s">
+        <v>13</v>
+      </c>
+      <c r="G90" t="s">
+        <v>14</v>
+      </c>
+      <c r="H90" t="s">
+        <v>15</v>
+      </c>
+      <c r="I90" t="s">
+        <v>16</v>
+      </c>
+      <c r="J90" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="s">
+        <v>9</v>
+      </c>
+      <c r="C91" t="s">
+        <v>10</v>
+      </c>
+      <c r="D91" t="s">
+        <v>11</v>
+      </c>
+      <c r="E91" t="s">
+        <v>12</v>
+      </c>
+      <c r="F91" t="s">
+        <v>25</v>
+      </c>
+      <c r="G91" t="s"/>
+      <c r="H91" t="s">
+        <v>32</v>
+      </c>
+      <c r="I91" t="s"/>
+      <c r="J91" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="s">
+        <v>9</v>
+      </c>
+      <c r="C92" t="s">
+        <v>10</v>
+      </c>
+      <c r="D92" t="s">
+        <v>11</v>
+      </c>
+      <c r="E92" t="s">
+        <v>12</v>
+      </c>
+      <c r="F92" t="s">
+        <v>13</v>
+      </c>
+      <c r="G92" t="s">
+        <v>14</v>
+      </c>
+      <c r="H92" t="s">
+        <v>15</v>
+      </c>
+      <c r="I92" t="s">
+        <v>16</v>
+      </c>
+      <c r="J92" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="s">
+        <v>9</v>
+      </c>
+      <c r="C93" t="s">
+        <v>10</v>
+      </c>
+      <c r="D93" t="s">
+        <v>11</v>
+      </c>
+      <c r="E93" t="s">
+        <v>12</v>
+      </c>
+      <c r="F93" t="s">
+        <v>25</v>
+      </c>
+      <c r="G93" t="s"/>
+      <c r="H93" t="s">
+        <v>26</v>
+      </c>
+      <c r="I93" t="s"/>
+      <c r="J93" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="s">
+        <v>9</v>
+      </c>
+      <c r="C94" t="s">
+        <v>10</v>
+      </c>
+      <c r="D94" t="s">
+        <v>11</v>
+      </c>
+      <c r="E94" t="s">
+        <v>12</v>
+      </c>
+      <c r="F94" t="s">
+        <v>13</v>
+      </c>
+      <c r="G94" t="s">
+        <v>14</v>
+      </c>
+      <c r="H94" t="s">
+        <v>15</v>
+      </c>
+      <c r="I94" t="s">
+        <v>16</v>
+      </c>
+      <c r="J94" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="s">
+        <v>9</v>
+      </c>
+      <c r="C95" t="s">
+        <v>10</v>
+      </c>
+      <c r="D95" t="s">
+        <v>11</v>
+      </c>
+      <c r="E95" t="s">
+        <v>12</v>
+      </c>
+      <c r="F95" t="s">
+        <v>18</v>
+      </c>
+      <c r="G95" t="s">
+        <v>14</v>
+      </c>
+      <c r="H95" t="s">
+        <v>19</v>
+      </c>
+      <c r="I95" t="s">
+        <v>20</v>
+      </c>
+      <c r="J95" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="s">
+        <v>9</v>
+      </c>
+      <c r="C96" t="s">
+        <v>10</v>
+      </c>
+      <c r="D96" t="s">
+        <v>11</v>
+      </c>
+      <c r="E96" t="s">
+        <v>12</v>
+      </c>
+      <c r="F96" t="s">
+        <v>25</v>
+      </c>
+      <c r="G96" t="s"/>
+      <c r="H96" t="s">
+        <v>37</v>
+      </c>
+      <c r="I96" t="s"/>
+      <c r="J96" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="s">
+        <v>9</v>
+      </c>
+      <c r="C97" t="s">
+        <v>10</v>
+      </c>
+      <c r="D97" t="s">
+        <v>11</v>
+      </c>
+      <c r="E97" t="s">
+        <v>12</v>
+      </c>
+      <c r="F97" t="s">
+        <v>18</v>
+      </c>
+      <c r="G97" t="s">
+        <v>14</v>
+      </c>
+      <c r="H97" t="s">
+        <v>19</v>
+      </c>
+      <c r="I97" t="s">
+        <v>20</v>
+      </c>
+      <c r="J97" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="s">
+        <v>9</v>
+      </c>
+      <c r="C98" t="s">
+        <v>10</v>
+      </c>
+      <c r="D98" t="s">
+        <v>11</v>
+      </c>
+      <c r="E98" t="s">
+        <v>12</v>
+      </c>
+      <c r="F98" t="s">
+        <v>13</v>
+      </c>
+      <c r="G98" t="s">
+        <v>14</v>
+      </c>
+      <c r="H98" t="s">
+        <v>15</v>
+      </c>
+      <c r="I98" t="s">
+        <v>16</v>
+      </c>
+      <c r="J98" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="s">
+        <v>9</v>
+      </c>
+      <c r="C99" t="s">
+        <v>10</v>
+      </c>
+      <c r="D99" t="s">
+        <v>11</v>
+      </c>
+      <c r="E99" t="s">
+        <v>12</v>
+      </c>
+      <c r="F99" t="s">
+        <v>25</v>
+      </c>
+      <c r="G99" t="s"/>
+      <c r="H99" t="s">
+        <v>58</v>
+      </c>
+      <c r="I99" t="s"/>
+      <c r="J99" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="s">
+        <v>9</v>
+      </c>
+      <c r="C100" t="s">
+        <v>10</v>
+      </c>
+      <c r="D100" t="s">
+        <v>11</v>
+      </c>
+      <c r="E100" t="s">
+        <v>12</v>
+      </c>
+      <c r="F100" t="s">
+        <v>25</v>
+      </c>
+      <c r="G100" t="s"/>
+      <c r="H100" t="s">
+        <v>26</v>
+      </c>
+      <c r="I100" t="s"/>
+      <c r="J100" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="s">
+        <v>9</v>
+      </c>
+      <c r="C101" t="s">
+        <v>10</v>
+      </c>
+      <c r="D101" t="s">
+        <v>11</v>
+      </c>
+      <c r="E101" t="s">
+        <v>12</v>
+      </c>
+      <c r="F101" t="s">
+        <v>25</v>
+      </c>
+      <c r="G101" t="s"/>
+      <c r="H101" t="s">
+        <v>58</v>
+      </c>
+      <c r="I101" t="s"/>
+      <c r="J101" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="s">
+        <v>9</v>
+      </c>
+      <c r="C102" t="s">
+        <v>10</v>
+      </c>
+      <c r="D102" t="s">
+        <v>11</v>
+      </c>
+      <c r="E102" t="s">
+        <v>12</v>
+      </c>
+      <c r="F102" t="s">
+        <v>25</v>
+      </c>
+      <c r="G102" t="s"/>
+      <c r="H102" t="s">
+        <v>26</v>
+      </c>
+      <c r="I102" t="s"/>
+      <c r="J102" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="s">
+        <v>9</v>
+      </c>
+      <c r="C103" t="s">
+        <v>10</v>
+      </c>
+      <c r="D103" t="s">
+        <v>11</v>
+      </c>
+      <c r="E103" t="s">
+        <v>12</v>
+      </c>
+      <c r="F103" t="s">
+        <v>25</v>
+      </c>
+      <c r="G103" t="s"/>
+      <c r="H103" t="s">
+        <v>58</v>
+      </c>
+      <c r="I103" t="s"/>
+      <c r="J103" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="s">
+        <v>9</v>
+      </c>
+      <c r="C104" t="s">
+        <v>10</v>
+      </c>
+      <c r="D104" t="s">
+        <v>11</v>
+      </c>
+      <c r="E104" t="s">
+        <v>12</v>
+      </c>
+      <c r="F104" t="s">
+        <v>25</v>
+      </c>
+      <c r="G104" t="s"/>
+      <c r="H104" t="s">
+        <v>26</v>
+      </c>
+      <c r="I104" t="s"/>
+      <c r="J104" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="s">
+        <v>9</v>
+      </c>
+      <c r="C105" t="s">
+        <v>10</v>
+      </c>
+      <c r="D105" t="s">
+        <v>11</v>
+      </c>
+      <c r="E105" t="s">
+        <v>12</v>
+      </c>
+      <c r="F105" t="s">
+        <v>25</v>
+      </c>
+      <c r="G105" t="s"/>
+      <c r="H105" t="s">
+        <v>58</v>
+      </c>
+      <c r="I105" t="s"/>
+      <c r="J105" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="s">
+        <v>9</v>
+      </c>
+      <c r="C106" t="s">
+        <v>10</v>
+      </c>
+      <c r="D106" t="s">
+        <v>11</v>
+      </c>
+      <c r="E106" t="s">
+        <v>12</v>
+      </c>
+      <c r="F106" t="s">
+        <v>25</v>
+      </c>
+      <c r="G106" t="s"/>
+      <c r="H106" t="s">
+        <v>29</v>
+      </c>
+      <c r="I106" t="s"/>
+      <c r="J106" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="s">
+        <v>9</v>
+      </c>
+      <c r="C107" t="s">
+        <v>10</v>
+      </c>
+      <c r="D107" t="s">
+        <v>11</v>
+      </c>
+      <c r="E107" t="s">
+        <v>12</v>
+      </c>
+      <c r="F107" t="s">
+        <v>25</v>
+      </c>
+      <c r="G107" t="s"/>
+      <c r="H107" t="s">
+        <v>58</v>
+      </c>
+      <c r="I107" t="s"/>
+      <c r="J107" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="s">
+        <v>9</v>
+      </c>
+      <c r="C108" t="s">
+        <v>10</v>
+      </c>
+      <c r="D108" t="s">
+        <v>11</v>
+      </c>
+      <c r="E108" t="s">
+        <v>12</v>
+      </c>
+      <c r="F108" t="s">
+        <v>25</v>
+      </c>
+      <c r="G108" t="s"/>
+      <c r="H108" t="s">
+        <v>29</v>
+      </c>
+      <c r="I108" t="s"/>
+      <c r="J108" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="s">
+        <v>9</v>
+      </c>
+      <c r="C109" t="s">
+        <v>10</v>
+      </c>
+      <c r="D109" t="s">
+        <v>11</v>
+      </c>
+      <c r="E109" t="s">
+        <v>12</v>
+      </c>
+      <c r="F109" t="s">
+        <v>25</v>
+      </c>
+      <c r="G109" t="s"/>
+      <c r="H109" t="s">
+        <v>58</v>
+      </c>
+      <c r="I109" t="s"/>
+      <c r="J109" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="s">
+        <v>9</v>
+      </c>
+      <c r="C110" t="s">
+        <v>10</v>
+      </c>
+      <c r="D110" t="s">
+        <v>11</v>
+      </c>
+      <c r="E110" t="s">
+        <v>12</v>
+      </c>
+      <c r="F110" t="s">
+        <v>25</v>
+      </c>
+      <c r="G110" t="s"/>
+      <c r="H110" t="s">
+        <v>32</v>
+      </c>
+      <c r="I110" t="s"/>
+      <c r="J110" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="s">
+        <v>9</v>
+      </c>
+      <c r="C111" t="s">
+        <v>10</v>
+      </c>
+      <c r="D111" t="s">
+        <v>11</v>
+      </c>
+      <c r="E111" t="s">
+        <v>12</v>
+      </c>
+      <c r="F111" t="s">
+        <v>25</v>
+      </c>
+      <c r="G111" t="s"/>
+      <c r="H111" t="s">
+        <v>58</v>
+      </c>
+      <c r="I111" t="s"/>
+      <c r="J111" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="s">
+        <v>9</v>
+      </c>
+      <c r="C112" t="s">
+        <v>10</v>
+      </c>
+      <c r="D112" t="s">
+        <v>11</v>
+      </c>
+      <c r="E112" t="s">
+        <v>12</v>
+      </c>
+      <c r="F112" t="s">
+        <v>25</v>
+      </c>
+      <c r="G112" t="s"/>
+      <c r="H112" t="s">
+        <v>32</v>
+      </c>
+      <c r="I112" t="s"/>
+      <c r="J112" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="s">
+        <v>9</v>
+      </c>
+      <c r="C113" t="s">
+        <v>10</v>
+      </c>
+      <c r="D113" t="s">
+        <v>11</v>
+      </c>
+      <c r="E113" t="s">
+        <v>12</v>
+      </c>
+      <c r="F113" t="s">
+        <v>25</v>
+      </c>
+      <c r="G113" t="s"/>
+      <c r="H113" t="s">
+        <v>58</v>
+      </c>
+      <c r="I113" t="s"/>
+      <c r="J113" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="s">
+        <v>9</v>
+      </c>
+      <c r="C114" t="s">
+        <v>10</v>
+      </c>
+      <c r="D114" t="s">
+        <v>11</v>
+      </c>
+      <c r="E114" t="s">
+        <v>12</v>
+      </c>
+      <c r="F114" t="s">
+        <v>13</v>
+      </c>
+      <c r="G114" t="s">
+        <v>14</v>
+      </c>
+      <c r="H114" t="s">
+        <v>15</v>
+      </c>
+      <c r="I114" t="s">
+        <v>16</v>
+      </c>
+      <c r="J114" t="s">
+        <v>143</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
